--- a/OYM/_DocumentosComunes/PE.xlsx
+++ b/OYM/_DocumentosComunes/PE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9271375A-4C73-443A-9ABB-546CE42F6149}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$M$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -697,7 +698,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -723,7 +724,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +735,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -764,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -783,6 +790,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,18 +1199,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1200,7 +1218,13 @@
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.140625" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" customWidth="1"/>
+    <col min="14" max="16" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1315,25 +1339,37 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">H3+I3+J3+K3+L3</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E66" si="1">M3+N3+O3+P3</f>
-        <v>5</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>12</v>
+      </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
       <c r="I3" s="7">
         <v>2</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
       <c r="M3" s="7">
         <v>5</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1349,25 +1385,37 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
       <c r="I4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
       <c r="M4" s="7">
         <v>5</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
@@ -1383,23 +1431,33 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
       <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
@@ -1415,23 +1473,35 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>5</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
@@ -1447,19 +1517,27 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>14</v>
+      </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1477,21 +1555,31 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>16</v>
+      </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
       <c r="I8" s="7">
         <v>2</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1509,7 +1597,7 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
@@ -1517,11 +1605,19 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
       <c r="M9" s="7">
         <v>4</v>
       </c>
@@ -1541,21 +1637,31 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>18</v>
+      </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
       <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1573,25 +1679,37 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>18</v>
+      </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
       <c r="I11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <v>5</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
@@ -1607,7 +1725,7 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
@@ -1615,11 +1733,17 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1637,23 +1761,35 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>14</v>
+      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
       <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2</v>
+      </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>5</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
@@ -1669,21 +1805,31 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>12</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
       <c r="I14" s="7">
         <v>2</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1701,21 +1847,31 @@
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>14</v>
+      </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
       <c r="I15" s="7">
         <v>2</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1733,23 +1889,35 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>12</v>
+      </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
       <c r="I16" s="7">
         <v>2</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
@@ -1765,23 +1933,35 @@
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
       <c r="I17" s="7">
         <v>2</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2</v>
+      </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>5</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
@@ -1797,23 +1977,33 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>18</v>
+      </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
       <c r="I18" s="7">
         <v>2</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2</v>
+      </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>5</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
@@ -1829,23 +2019,35 @@
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>8</v>
+      </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
       <c r="I19" s="7">
         <v>2</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>2</v>
+      </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="N19" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
@@ -1861,25 +2063,37 @@
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>12</v>
+      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
       <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>2</v>
+      </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
@@ -1895,23 +2109,35 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>16</v>
+      </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
       <c r="I21" s="7">
         <v>2</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>2</v>
+      </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="N21" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
@@ -1927,23 +2153,35 @@
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>16</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
       <c r="I22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>2</v>
+      </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7">
+        <v>5</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
@@ -1959,7 +2197,7 @@
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="1"/>
@@ -1967,11 +2205,17 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="K23" s="7">
+        <v>2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1989,25 +2233,37 @@
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F24" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F24" s="6">
+        <v>14</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
       <c r="I24" s="7">
         <v>2</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="J24" s="7">
+        <v>2</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>2</v>
+      </c>
       <c r="M24" s="7">
         <v>5</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="7">
+        <v>5</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
@@ -2023,19 +2279,29 @@
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <v>12</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="J25" s="7">
+        <v>2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>2</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2053,7 +2319,7 @@
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="1"/>
@@ -2061,11 +2327,17 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7">
+        <v>2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>2</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2083,23 +2355,35 @@
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>12</v>
+      </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
       <c r="I27" s="7">
         <v>2</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="J27" s="7">
+        <v>2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>2</v>
+      </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="N27" s="7">
+        <v>5</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
@@ -2115,21 +2399,31 @@
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6">
+        <v>14</v>
+      </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
       <c r="I28" s="7">
         <v>2</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="J28" s="7">
+        <v>2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>2</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2147,7 +2441,7 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
@@ -2155,13 +2449,19 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
       <c r="I29" s="7">
         <v>2</v>
       </c>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="7">
+        <v>2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>2</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2179,23 +2479,35 @@
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>12</v>
+      </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>2</v>
+      </c>
       <c r="I30" s="7">
         <v>2</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="J30" s="7">
+        <v>2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2</v>
+      </c>
       <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="N30" s="7">
+        <v>5</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
@@ -2211,19 +2523,27 @@
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6">
+        <v>12</v>
+      </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -2241,7 +2561,7 @@
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
@@ -2249,11 +2569,17 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="K32" s="7">
+        <v>2</v>
+      </c>
+      <c r="L32" s="7">
+        <v>2</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2271,7 +2597,7 @@
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
@@ -2279,11 +2605,17 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="K33" s="7">
+        <v>2</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -2301,57 +2633,75 @@
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6">
+        <v>12</v>
+      </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
       <c r="I34" s="7">
         <v>2</v>
       </c>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="K34" s="7">
+        <v>2</v>
+      </c>
+      <c r="L34" s="7">
+        <v>2</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+    <row r="35" spans="1:16" s="12" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D35" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7">
-        <v>2</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
+      <c r="F35" s="10">
+        <v>12</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11">
+        <v>2</v>
+      </c>
+      <c r="I35" s="11">
+        <v>2</v>
+      </c>
+      <c r="J35" s="11">
+        <v>2</v>
+      </c>
+      <c r="K35" s="11">
+        <v>2</v>
+      </c>
+      <c r="L35" s="11">
+        <v>2</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
@@ -2365,19 +2715,27 @@
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="6">
+        <v>16</v>
+      </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>2</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="K36" s="7">
+        <v>2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>2</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2395,21 +2753,31 @@
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6">
+        <v>12</v>
+      </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7">
+        <v>2</v>
+      </c>
       <c r="I37" s="7">
         <v>2</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="J37" s="7">
+        <v>2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2427,21 +2795,33 @@
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="6">
+        <v>14</v>
+      </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>2</v>
+      </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="J38" s="7">
+        <v>2</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>2</v>
+      </c>
       <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="N38" s="7">
+        <v>5</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
     </row>
@@ -2457,7 +2837,7 @@
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
@@ -2465,13 +2845,21 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>2</v>
+      </c>
       <c r="I39" s="7">
         <v>2</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="J39" s="7">
+        <v>2</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2</v>
+      </c>
+      <c r="L39" s="7">
+        <v>2</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2489,7 +2877,7 @@
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="1"/>
@@ -2497,11 +2885,17 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7">
+        <v>2</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="K40" s="7">
+        <v>2</v>
+      </c>
+      <c r="L40" s="7">
+        <v>2</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -2519,23 +2913,31 @@
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>2</v>
+      </c>
       <c r="I41" s="7">
         <v>2</v>
       </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="K41" s="7">
+        <v>2</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2</v>
+      </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
@@ -2551,21 +2953,31 @@
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>8</v>
+      </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7">
+        <v>2</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="K42" s="7">
+        <v>2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>2</v>
+      </c>
       <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="N42" s="7">
+        <v>5</v>
+      </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
     </row>
@@ -2581,23 +2993,35 @@
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F43" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="F43" s="6">
+        <v>12</v>
+      </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>2</v>
+      </c>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="J43" s="7">
+        <v>2</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>2</v>
+      </c>
       <c r="M43" s="7">
         <v>4</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="7">
+        <v>3</v>
+      </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
@@ -2613,23 +3037,33 @@
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7">
+        <v>2</v>
+      </c>
       <c r="I44" s="7">
         <v>2</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="J44" s="7">
+        <v>2</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2</v>
+      </c>
+      <c r="L44" s="7">
+        <v>2</v>
+      </c>
       <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+      <c r="N44" s="7">
+        <v>5</v>
+      </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
@@ -2645,23 +3079,31 @@
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7">
+        <v>2</v>
+      </c>
       <c r="I45" s="7">
         <v>2</v>
       </c>
       <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="K45" s="7">
+        <v>2</v>
+      </c>
+      <c r="L45" s="7">
+        <v>2</v>
+      </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="N45" s="7">
+        <v>5</v>
+      </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
     </row>
@@ -2677,21 +3119,31 @@
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="6">
+        <v>14</v>
+      </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>2</v>
+      </c>
       <c r="I46" s="7">
         <v>2</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="J46" s="7">
+        <v>2</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2</v>
+      </c>
+      <c r="L46" s="7">
+        <v>2</v>
+      </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -2709,7 +3161,7 @@
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="1"/>
@@ -2717,11 +3169,17 @@
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>2</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="7">
+        <v>2</v>
+      </c>
+      <c r="L47" s="7">
+        <v>2</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -2739,7 +3197,7 @@
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="1"/>
@@ -2747,11 +3205,17 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>2</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="K48" s="7">
+        <v>2</v>
+      </c>
+      <c r="L48" s="7">
+        <v>2</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -2769,23 +3233,35 @@
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F49" s="6">
+        <v>14</v>
+      </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>2</v>
+      </c>
       <c r="I49" s="7">
         <v>2</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="J49" s="7">
+        <v>2</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2</v>
+      </c>
+      <c r="L49" s="7">
+        <v>2</v>
+      </c>
       <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
     </row>
@@ -2801,19 +3277,27 @@
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6">
+        <v>16</v>
+      </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>2</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+      <c r="K50" s="7">
+        <v>2</v>
+      </c>
+      <c r="L50" s="7">
+        <v>2</v>
+      </c>
       <c r="M50" s="7">
         <v>5</v>
       </c>
@@ -2833,7 +3317,7 @@
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" si="1"/>
@@ -2841,11 +3325,19 @@
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="7">
+        <v>2</v>
+      </c>
       <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="J51" s="7">
+        <v>2</v>
+      </c>
+      <c r="K51" s="7">
+        <v>2</v>
+      </c>
+      <c r="L51" s="7">
+        <v>2</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -2863,21 +3355,29 @@
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E52" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="6">
+        <v>14</v>
+      </c>
       <c r="G52" s="6"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7">
+        <v>2</v>
+      </c>
       <c r="I52" s="7">
         <v>2</v>
       </c>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+      <c r="K52" s="7">
+        <v>2</v>
+      </c>
+      <c r="L52" s="7">
+        <v>2</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -2895,23 +3395,35 @@
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F53" s="6">
+        <v>18</v>
+      </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="7">
+        <v>2</v>
+      </c>
       <c r="I53" s="7">
         <v>2</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
+      <c r="J53" s="7">
+        <v>2</v>
+      </c>
+      <c r="K53" s="7">
+        <v>2</v>
+      </c>
+      <c r="L53" s="7">
+        <v>2</v>
+      </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
+      <c r="N53" s="7">
+        <v>5</v>
+      </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
     </row>
@@ -2927,21 +3439,31 @@
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="7">
+        <v>2</v>
+      </c>
       <c r="I54" s="7">
         <v>2</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
+      <c r="J54" s="7">
+        <v>2</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2</v>
+      </c>
+      <c r="L54" s="7">
+        <v>2</v>
+      </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
@@ -2959,23 +3481,35 @@
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E55" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F55" s="6">
+        <v>14</v>
+      </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7">
+        <v>2</v>
+      </c>
       <c r="I55" s="7">
         <v>2</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="J55" s="7">
+        <v>2</v>
+      </c>
+      <c r="K55" s="7">
+        <v>2</v>
+      </c>
+      <c r="L55" s="7">
+        <v>2</v>
+      </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
+      <c r="N55" s="7">
+        <v>5</v>
+      </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
     </row>
@@ -2991,25 +3525,37 @@
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E56" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F56" s="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="F56" s="6">
+        <v>16</v>
+      </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7">
+        <v>2</v>
+      </c>
       <c r="I56" s="7">
         <v>2</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="J56" s="7">
+        <v>2</v>
+      </c>
+      <c r="K56" s="7">
+        <v>2</v>
+      </c>
+      <c r="L56" s="7">
+        <v>2</v>
+      </c>
       <c r="M56" s="7">
         <v>4</v>
       </c>
-      <c r="N56" s="7"/>
+      <c r="N56" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
     </row>
@@ -3025,25 +3571,37 @@
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E57" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F57" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F57" s="6">
+        <v>14</v>
+      </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7">
+        <v>2</v>
+      </c>
       <c r="I57" s="7">
         <v>2</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
+      <c r="J57" s="7">
+        <v>2</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2</v>
+      </c>
+      <c r="L57" s="7">
+        <v>2</v>
+      </c>
       <c r="M57" s="7">
         <v>5</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="7">
+        <v>5</v>
+      </c>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
     </row>
@@ -3059,23 +3617,35 @@
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E58" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F58" s="6">
+        <v>16</v>
+      </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="7">
+        <v>2</v>
+      </c>
       <c r="I58" s="7">
         <v>2</v>
       </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
+      <c r="J58" s="7">
+        <v>2</v>
+      </c>
+      <c r="K58" s="7">
+        <v>2</v>
+      </c>
+      <c r="L58" s="7">
+        <v>2</v>
+      </c>
       <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
+      <c r="N58" s="7">
+        <v>5</v>
+      </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
     </row>
@@ -3091,25 +3661,37 @@
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E59" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F59" s="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="F59" s="6">
+        <v>16</v>
+      </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="7">
+        <v>2</v>
+      </c>
       <c r="I59" s="7">
         <v>2</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
+      <c r="J59" s="7">
+        <v>2</v>
+      </c>
+      <c r="K59" s="7">
+        <v>2</v>
+      </c>
+      <c r="L59" s="7">
+        <v>2</v>
+      </c>
       <c r="M59" s="7">
         <v>4</v>
       </c>
-      <c r="N59" s="7"/>
+      <c r="N59" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
     </row>
@@ -3125,23 +3707,35 @@
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E60" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F60" s="6">
+        <v>14</v>
+      </c>
       <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="7">
+        <v>2</v>
+      </c>
       <c r="I60" s="7">
         <v>2</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+      <c r="J60" s="7">
+        <v>2</v>
+      </c>
+      <c r="K60" s="7">
+        <v>2</v>
+      </c>
+      <c r="L60" s="7">
+        <v>2</v>
+      </c>
       <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
+      <c r="N60" s="7">
+        <v>5</v>
+      </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
     </row>
@@ -3157,21 +3751,31 @@
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E61" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="6">
+        <v>18</v>
+      </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7">
+        <v>2</v>
+      </c>
       <c r="I61" s="7">
         <v>2</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
+      <c r="J61" s="7">
+        <v>2</v>
+      </c>
+      <c r="K61" s="7">
+        <v>2</v>
+      </c>
+      <c r="L61" s="7">
+        <v>2</v>
+      </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
@@ -3189,23 +3793,33 @@
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E62" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7">
+        <v>2</v>
+      </c>
       <c r="I62" s="7">
         <v>2</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="J62" s="7">
+        <v>2</v>
+      </c>
+      <c r="K62" s="7">
+        <v>2</v>
+      </c>
+      <c r="L62" s="7">
+        <v>2</v>
+      </c>
       <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
+      <c r="N62" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
     </row>
@@ -3221,21 +3835,31 @@
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E63" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="6">
+        <v>16</v>
+      </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="7">
+        <v>2</v>
+      </c>
       <c r="I63" s="7">
         <v>2</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63" s="7">
+        <v>2</v>
+      </c>
+      <c r="L63" s="7">
+        <v>2</v>
+      </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -3253,21 +3877,31 @@
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E64" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="6">
+        <v>12</v>
+      </c>
       <c r="G64" s="6"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7">
+        <v>2</v>
+      </c>
       <c r="I64" s="7">
         <v>2</v>
       </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="J64" s="7">
+        <v>2</v>
+      </c>
+      <c r="K64" s="7">
+        <v>2</v>
+      </c>
+      <c r="L64" s="7">
+        <v>2</v>
+      </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -3285,25 +3919,37 @@
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E65" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F65" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="F65" s="6">
+        <v>10</v>
+      </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7">
+        <v>2</v>
+      </c>
       <c r="I65" s="7">
         <v>2</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="J65" s="7">
+        <v>2</v>
+      </c>
+      <c r="K65" s="7">
+        <v>2</v>
+      </c>
+      <c r="L65" s="7">
+        <v>2</v>
+      </c>
       <c r="M65" s="7">
         <v>4</v>
       </c>
-      <c r="N65" s="7"/>
+      <c r="N65" s="7">
+        <v>3</v>
+      </c>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
     </row>
@@ -3319,21 +3965,33 @@
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E66" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F66" s="6">
+        <v>16</v>
+      </c>
       <c r="G66" s="6"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7">
+        <v>2</v>
+      </c>
       <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="J66" s="7">
+        <v>2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>2</v>
+      </c>
+      <c r="L66" s="7">
+        <v>2</v>
+      </c>
       <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
+      <c r="N66" s="7">
+        <v>5</v>
+      </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
     </row>
@@ -3349,25 +4007,35 @@
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D105" si="2">H67+I67+J67+K67+L67</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E67" s="6">
         <f t="shared" ref="E67:E105" si="3">M67+N67+O67+P67</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7">
+        <v>2</v>
+      </c>
       <c r="I67" s="7">
         <v>2</v>
       </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
+      <c r="J67" s="7">
+        <v>2</v>
+      </c>
+      <c r="K67" s="7">
+        <v>2</v>
+      </c>
+      <c r="L67" s="7">
+        <v>2</v>
+      </c>
       <c r="M67" s="7">
         <v>4</v>
       </c>
-      <c r="N67" s="7"/>
+      <c r="N67" s="7">
+        <v>5</v>
+      </c>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
     </row>
@@ -3383,21 +4051,31 @@
       </c>
       <c r="D68" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E68" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F68" s="6"/>
+      <c r="F68" s="6">
+        <v>16</v>
+      </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7">
+        <v>2</v>
+      </c>
       <c r="I68" s="7">
         <v>2</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="J68" s="7">
+        <v>2</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2</v>
+      </c>
+      <c r="L68" s="7">
+        <v>2</v>
+      </c>
       <c r="M68" s="7">
         <v>4</v>
       </c>
@@ -3417,25 +4095,35 @@
       </c>
       <c r="D69" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E69" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="7">
+        <v>2</v>
+      </c>
       <c r="I69" s="7">
         <v>2</v>
       </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="J69" s="7">
+        <v>2</v>
+      </c>
+      <c r="K69" s="7">
+        <v>2</v>
+      </c>
+      <c r="L69" s="7">
+        <v>2</v>
+      </c>
       <c r="M69" s="7">
         <v>4</v>
       </c>
-      <c r="N69" s="7"/>
+      <c r="N69" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
     </row>
@@ -3451,23 +4139,35 @@
       </c>
       <c r="D70" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E70" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F70" s="6">
+        <v>14</v>
+      </c>
       <c r="G70" s="6"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7">
+        <v>2</v>
+      </c>
       <c r="I70" s="7">
         <v>2</v>
       </c>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+      <c r="J70" s="7">
+        <v>2</v>
+      </c>
+      <c r="K70" s="7">
+        <v>2</v>
+      </c>
+      <c r="L70" s="7">
+        <v>2</v>
+      </c>
       <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
+      <c r="N70" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
     </row>
@@ -3483,23 +4183,35 @@
       </c>
       <c r="D71" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E71" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F71" s="6">
+        <v>16</v>
+      </c>
       <c r="G71" s="6"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7">
+        <v>2</v>
+      </c>
       <c r="I71" s="7">
         <v>2</v>
       </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="J71" s="7">
+        <v>2</v>
+      </c>
+      <c r="K71" s="7">
+        <v>2</v>
+      </c>
+      <c r="L71" s="7">
+        <v>2</v>
+      </c>
       <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
+      <c r="N71" s="7">
+        <v>5</v>
+      </c>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
     </row>
@@ -3515,21 +4227,31 @@
       </c>
       <c r="D72" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E72" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F72" s="6"/>
+      <c r="F72" s="6">
+        <v>18</v>
+      </c>
       <c r="G72" s="6"/>
-      <c r="H72" s="7"/>
+      <c r="H72" s="7">
+        <v>2</v>
+      </c>
       <c r="I72" s="7">
         <v>2</v>
       </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="J72" s="7">
+        <v>2</v>
+      </c>
+      <c r="K72" s="7">
+        <v>2</v>
+      </c>
+      <c r="L72" s="7">
+        <v>2</v>
+      </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
@@ -3547,23 +4269,35 @@
       </c>
       <c r="D73" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E73" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F73" s="6">
+        <v>10</v>
+      </c>
       <c r="G73" s="6"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="7">
+        <v>2</v>
+      </c>
       <c r="I73" s="7">
         <v>2</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="J73" s="7">
+        <v>2</v>
+      </c>
+      <c r="K73" s="7">
+        <v>2</v>
+      </c>
+      <c r="L73" s="7">
+        <v>2</v>
+      </c>
       <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
+      <c r="N73" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
     </row>
@@ -3579,21 +4313,33 @@
       </c>
       <c r="D74" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E74" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F74" s="6">
+        <v>16</v>
+      </c>
       <c r="G74" s="6"/>
-      <c r="H74" s="7"/>
+      <c r="H74" s="7">
+        <v>2</v>
+      </c>
       <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="J74" s="7">
+        <v>2</v>
+      </c>
+      <c r="K74" s="7">
+        <v>2</v>
+      </c>
+      <c r="L74" s="7">
+        <v>2</v>
+      </c>
       <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
+      <c r="N74" s="7">
+        <v>5</v>
+      </c>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
     </row>
@@ -3609,19 +4355,29 @@
       </c>
       <c r="D75" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E75" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="6"/>
+      <c r="F75" s="6">
+        <v>16</v>
+      </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="7">
+        <v>2</v>
+      </c>
       <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="J75" s="7">
+        <v>2</v>
+      </c>
+      <c r="K75" s="7">
+        <v>2</v>
+      </c>
+      <c r="L75" s="7">
+        <v>2</v>
+      </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -3639,21 +4395,31 @@
       </c>
       <c r="D76" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E76" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F76" s="6">
+        <v>10</v>
+      </c>
       <c r="G76" s="6"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="7">
+        <v>2</v>
+      </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+      <c r="K76" s="7">
+        <v>2</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2</v>
+      </c>
       <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
+      <c r="N76" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
     </row>
@@ -3669,23 +4435,35 @@
       </c>
       <c r="D77" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E77" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F77" s="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="F77" s="6">
+        <v>16</v>
+      </c>
       <c r="G77" s="6"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="7">
+        <v>2</v>
+      </c>
       <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="J77" s="7">
+        <v>2</v>
+      </c>
+      <c r="K77" s="7">
+        <v>2</v>
+      </c>
+      <c r="L77" s="7">
+        <v>2</v>
+      </c>
       <c r="M77" s="7">
         <v>5</v>
       </c>
-      <c r="N77" s="7"/>
+      <c r="N77" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
     </row>
@@ -3701,23 +4479,35 @@
       </c>
       <c r="D78" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E78" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F78" s="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="F78" s="6">
+        <v>16</v>
+      </c>
       <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="7">
+        <v>2</v>
+      </c>
       <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="J78" s="7">
+        <v>2</v>
+      </c>
+      <c r="K78" s="7">
+        <v>2</v>
+      </c>
+      <c r="L78" s="7">
+        <v>2</v>
+      </c>
       <c r="M78" s="7">
         <v>5</v>
       </c>
-      <c r="N78" s="7"/>
+      <c r="N78" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
     </row>
@@ -3733,25 +4523,37 @@
       </c>
       <c r="D79" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E79" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F79" s="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="F79" s="6">
+        <v>14</v>
+      </c>
       <c r="G79" s="6"/>
-      <c r="H79" s="7"/>
+      <c r="H79" s="7">
+        <v>2</v>
+      </c>
       <c r="I79" s="7">
         <v>2</v>
       </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
+      <c r="J79" s="7">
+        <v>2</v>
+      </c>
+      <c r="K79" s="7">
+        <v>2</v>
+      </c>
+      <c r="L79" s="7">
+        <v>2</v>
+      </c>
       <c r="M79" s="7">
         <v>4</v>
       </c>
-      <c r="N79" s="7"/>
+      <c r="N79" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
     </row>
@@ -3767,21 +4569,31 @@
       </c>
       <c r="D80" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F80" s="6"/>
+      <c r="F80" s="6">
+        <v>10</v>
+      </c>
       <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
+      <c r="H80" s="7">
+        <v>2</v>
+      </c>
       <c r="I80" s="7">
         <v>2</v>
       </c>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
+      <c r="J80" s="7">
+        <v>2</v>
+      </c>
+      <c r="K80" s="7">
+        <v>2</v>
+      </c>
+      <c r="L80" s="7">
+        <v>2</v>
+      </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
@@ -3799,23 +4611,35 @@
       </c>
       <c r="D81" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E81" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F81" s="6">
+        <v>12</v>
+      </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="7">
+        <v>2</v>
+      </c>
       <c r="I81" s="7">
         <v>2</v>
       </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="J81" s="7">
+        <v>2</v>
+      </c>
+      <c r="K81" s="7">
+        <v>2</v>
+      </c>
+      <c r="L81" s="7">
+        <v>2</v>
+      </c>
       <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
+      <c r="N81" s="7">
+        <v>5</v>
+      </c>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
     </row>
@@ -3831,19 +4655,29 @@
       </c>
       <c r="D82" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F82" s="6"/>
+      <c r="F82" s="6">
+        <v>12</v>
+      </c>
       <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="7">
+        <v>2</v>
+      </c>
       <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
+      <c r="J82" s="7">
+        <v>2</v>
+      </c>
+      <c r="K82" s="7">
+        <v>2</v>
+      </c>
+      <c r="L82" s="7">
+        <v>2</v>
+      </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
@@ -3861,23 +4695,35 @@
       </c>
       <c r="D83" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E83" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F83" s="6">
+        <v>16</v>
+      </c>
       <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="7">
+        <v>2</v>
+      </c>
       <c r="I83" s="7">
         <v>2</v>
       </c>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="J83" s="7">
+        <v>2</v>
+      </c>
+      <c r="K83" s="7">
+        <v>2</v>
+      </c>
+      <c r="L83" s="7">
+        <v>2</v>
+      </c>
       <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
+      <c r="N83" s="7">
+        <v>5</v>
+      </c>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
     </row>
@@ -3893,7 +4739,7 @@
       </c>
       <c r="D84" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E84" s="6">
         <f t="shared" si="3"/>
@@ -3901,11 +4747,19 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="7">
+        <v>2</v>
+      </c>
       <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="J84" s="7">
+        <v>2</v>
+      </c>
+      <c r="K84" s="7">
+        <v>2</v>
+      </c>
+      <c r="L84" s="7">
+        <v>2</v>
+      </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
@@ -3923,25 +4777,33 @@
       </c>
       <c r="D85" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E85" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="7">
+        <v>2</v>
+      </c>
       <c r="I85" s="7">
         <v>2</v>
       </c>
       <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="K85" s="7">
+        <v>2</v>
+      </c>
+      <c r="L85" s="7">
+        <v>2</v>
+      </c>
       <c r="M85" s="7">
         <v>4</v>
       </c>
-      <c r="N85" s="7"/>
+      <c r="N85" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
     </row>
@@ -3957,23 +4819,33 @@
       </c>
       <c r="D86" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E86" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="7"/>
+      <c r="H86" s="7">
+        <v>2</v>
+      </c>
       <c r="I86" s="7">
         <v>2</v>
       </c>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
+      <c r="J86" s="7">
+        <v>2</v>
+      </c>
+      <c r="K86" s="7">
+        <v>2</v>
+      </c>
+      <c r="L86" s="7">
+        <v>2</v>
+      </c>
       <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
+      <c r="N86" s="7">
+        <v>5</v>
+      </c>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
     </row>
@@ -3989,23 +4861,35 @@
       </c>
       <c r="D87" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E87" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F87" s="6">
+        <v>18</v>
+      </c>
       <c r="G87" s="6"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="7">
+        <v>2</v>
+      </c>
       <c r="I87" s="7">
         <v>2</v>
       </c>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
+      <c r="J87" s="7">
+        <v>2</v>
+      </c>
+      <c r="K87" s="7">
+        <v>2</v>
+      </c>
+      <c r="L87" s="7">
+        <v>2</v>
+      </c>
       <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
+      <c r="N87" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
     </row>
@@ -4021,21 +4905,31 @@
       </c>
       <c r="D88" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E88" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="6"/>
+      <c r="F88" s="6">
+        <v>18</v>
+      </c>
       <c r="G88" s="6"/>
-      <c r="H88" s="7"/>
+      <c r="H88" s="7">
+        <v>2</v>
+      </c>
       <c r="I88" s="7">
         <v>2</v>
       </c>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="J88" s="7">
+        <v>2</v>
+      </c>
+      <c r="K88" s="7">
+        <v>2</v>
+      </c>
+      <c r="L88" s="7">
+        <v>2</v>
+      </c>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
@@ -4053,19 +4947,29 @@
       </c>
       <c r="D89" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E89" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F89" s="6"/>
+      <c r="F89" s="6">
+        <v>12</v>
+      </c>
       <c r="G89" s="6"/>
-      <c r="H89" s="7"/>
+      <c r="H89" s="7">
+        <v>2</v>
+      </c>
       <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="J89" s="7">
+        <v>2</v>
+      </c>
+      <c r="K89" s="7">
+        <v>2</v>
+      </c>
+      <c r="L89" s="7">
+        <v>2</v>
+      </c>
       <c r="M89" s="7">
         <v>4</v>
       </c>
@@ -4085,23 +4989,35 @@
       </c>
       <c r="D90" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E90" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F90" s="6">
+        <v>12</v>
+      </c>
       <c r="G90" s="6"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="7">
+        <v>2</v>
+      </c>
       <c r="I90" s="7">
         <v>2</v>
       </c>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
+      <c r="J90" s="7">
+        <v>2</v>
+      </c>
+      <c r="K90" s="7">
+        <v>2</v>
+      </c>
+      <c r="L90" s="7">
+        <v>2</v>
+      </c>
       <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
+      <c r="N90" s="7">
+        <v>5</v>
+      </c>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
     </row>
@@ -4117,19 +5033,29 @@
       </c>
       <c r="D91" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F91" s="6"/>
+      <c r="F91" s="6">
+        <v>12</v>
+      </c>
       <c r="G91" s="6"/>
-      <c r="H91" s="7"/>
+      <c r="H91" s="7">
+        <v>2</v>
+      </c>
       <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
+      <c r="J91" s="7">
+        <v>2</v>
+      </c>
+      <c r="K91" s="7">
+        <v>2</v>
+      </c>
+      <c r="L91" s="7">
+        <v>2</v>
+      </c>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
@@ -4147,23 +5073,35 @@
       </c>
       <c r="D92" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E92" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F92" s="6">
+        <v>12</v>
+      </c>
       <c r="G92" s="6"/>
-      <c r="H92" s="7"/>
+      <c r="H92" s="7">
+        <v>2</v>
+      </c>
       <c r="I92" s="7">
         <v>2</v>
       </c>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
+      <c r="J92" s="7">
+        <v>2</v>
+      </c>
+      <c r="K92" s="7">
+        <v>2</v>
+      </c>
+      <c r="L92" s="7">
+        <v>2</v>
+      </c>
       <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
+      <c r="N92" s="7">
+        <v>5</v>
+      </c>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
     </row>
@@ -4179,21 +5117,33 @@
       </c>
       <c r="D93" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E93" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F93" s="6">
+        <v>16</v>
+      </c>
       <c r="G93" s="6"/>
-      <c r="H93" s="7"/>
+      <c r="H93" s="7">
+        <v>2</v>
+      </c>
       <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
+      <c r="J93" s="7">
+        <v>2</v>
+      </c>
+      <c r="K93" s="7">
+        <v>2</v>
+      </c>
+      <c r="L93" s="7">
+        <v>2</v>
+      </c>
       <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
+      <c r="N93" s="7">
+        <v>5</v>
+      </c>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
     </row>
@@ -4209,23 +5159,33 @@
       </c>
       <c r="D94" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E94" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="7"/>
+      <c r="H94" s="7">
+        <v>2</v>
+      </c>
       <c r="I94" s="7">
         <v>2</v>
       </c>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="J94" s="7">
+        <v>2</v>
+      </c>
+      <c r="K94" s="7">
+        <v>2</v>
+      </c>
+      <c r="L94" s="7">
+        <v>2</v>
+      </c>
       <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
+      <c r="N94" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
     </row>
@@ -4241,23 +5201,35 @@
       </c>
       <c r="D95" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E95" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F95" s="6">
+        <v>16</v>
+      </c>
       <c r="G95" s="6"/>
-      <c r="H95" s="7"/>
+      <c r="H95" s="7">
+        <v>2</v>
+      </c>
       <c r="I95" s="7">
         <v>2</v>
       </c>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
+      <c r="J95" s="7">
+        <v>2</v>
+      </c>
+      <c r="K95" s="7">
+        <v>2</v>
+      </c>
+      <c r="L95" s="7">
+        <v>2</v>
+      </c>
       <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
+      <c r="N95" s="7">
+        <v>5</v>
+      </c>
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
     </row>
@@ -4273,25 +5245,37 @@
       </c>
       <c r="D96" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E96" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F96" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F96" s="6">
+        <v>10</v>
+      </c>
       <c r="G96" s="6"/>
-      <c r="H96" s="7"/>
+      <c r="H96" s="7">
+        <v>2</v>
+      </c>
       <c r="I96" s="7">
         <v>2</v>
       </c>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
+      <c r="J96" s="7">
+        <v>2</v>
+      </c>
+      <c r="K96" s="7">
+        <v>2</v>
+      </c>
+      <c r="L96" s="7">
+        <v>2</v>
+      </c>
       <c r="M96" s="7">
         <v>4</v>
       </c>
-      <c r="N96" s="7"/>
+      <c r="N96" s="7">
+        <v>5</v>
+      </c>
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
     </row>
@@ -4307,23 +5291,33 @@
       </c>
       <c r="D97" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E97" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="7"/>
+      <c r="H97" s="7">
+        <v>2</v>
+      </c>
       <c r="I97" s="7">
         <v>2</v>
       </c>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
+      <c r="J97" s="7">
+        <v>2</v>
+      </c>
+      <c r="K97" s="7">
+        <v>2</v>
+      </c>
+      <c r="L97" s="7">
+        <v>2</v>
+      </c>
       <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
+      <c r="N97" s="7">
+        <v>5</v>
+      </c>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
     </row>
@@ -4339,23 +5333,31 @@
       </c>
       <c r="D98" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E98" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="7"/>
+      <c r="H98" s="7">
+        <v>2</v>
+      </c>
       <c r="I98" s="7">
         <v>2</v>
       </c>
       <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
+      <c r="K98" s="7">
+        <v>2</v>
+      </c>
+      <c r="L98" s="7">
+        <v>2</v>
+      </c>
       <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
+      <c r="N98" s="7">
+        <v>5</v>
+      </c>
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
     </row>
@@ -4371,25 +5373,37 @@
       </c>
       <c r="D99" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E99" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F99" s="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="F99" s="6">
+        <v>16</v>
+      </c>
       <c r="G99" s="6"/>
-      <c r="H99" s="7"/>
+      <c r="H99" s="7">
+        <v>2</v>
+      </c>
       <c r="I99" s="7">
         <v>2</v>
       </c>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
+      <c r="J99" s="7">
+        <v>2</v>
+      </c>
+      <c r="K99" s="7">
+        <v>2</v>
+      </c>
+      <c r="L99" s="7">
+        <v>2</v>
+      </c>
       <c r="M99" s="7">
         <v>4</v>
       </c>
-      <c r="N99" s="7"/>
+      <c r="N99" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
     </row>
@@ -4405,21 +5419,29 @@
       </c>
       <c r="D100" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F100" s="6"/>
+      <c r="F100" s="6">
+        <v>18</v>
+      </c>
       <c r="G100" s="6"/>
-      <c r="H100" s="7"/>
+      <c r="H100" s="7">
+        <v>2</v>
+      </c>
       <c r="I100" s="7">
         <v>2</v>
       </c>
       <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
+      <c r="K100" s="7">
+        <v>2</v>
+      </c>
+      <c r="L100" s="7">
+        <v>2</v>
+      </c>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
@@ -4437,21 +5459,31 @@
       </c>
       <c r="D101" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F101" s="6"/>
+      <c r="F101" s="6">
+        <v>10</v>
+      </c>
       <c r="G101" s="6"/>
-      <c r="H101" s="7"/>
+      <c r="H101" s="7">
+        <v>2</v>
+      </c>
       <c r="I101" s="7">
         <v>2</v>
       </c>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
+      <c r="J101" s="7">
+        <v>2</v>
+      </c>
+      <c r="K101" s="7">
+        <v>2</v>
+      </c>
+      <c r="L101" s="7">
+        <v>2</v>
+      </c>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
@@ -4469,7 +5501,7 @@
       </c>
       <c r="D102" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E102" s="6">
         <f t="shared" si="3"/>
@@ -4477,11 +5509,17 @@
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="7"/>
+      <c r="H102" s="7">
+        <v>2</v>
+      </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
+      <c r="K102" s="7">
+        <v>2</v>
+      </c>
+      <c r="L102" s="7">
+        <v>2</v>
+      </c>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
@@ -4499,19 +5537,27 @@
       </c>
       <c r="D103" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E103" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F103" s="6"/>
+      <c r="F103" s="6">
+        <v>18</v>
+      </c>
       <c r="G103" s="6"/>
-      <c r="H103" s="7"/>
+      <c r="H103" s="7">
+        <v>2</v>
+      </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
+      <c r="K103" s="7">
+        <v>2</v>
+      </c>
+      <c r="L103" s="7">
+        <v>2</v>
+      </c>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
@@ -4529,23 +5575,35 @@
       </c>
       <c r="D104" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E104" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F104" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F104" s="6">
+        <v>12</v>
+      </c>
       <c r="G104" s="6"/>
-      <c r="H104" s="7"/>
+      <c r="H104" s="7">
+        <v>2</v>
+      </c>
       <c r="I104" s="7">
         <v>2</v>
       </c>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
+      <c r="J104" s="7">
+        <v>2</v>
+      </c>
+      <c r="K104" s="7">
+        <v>2</v>
+      </c>
+      <c r="L104" s="7">
+        <v>2</v>
+      </c>
       <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
+      <c r="N104" s="7">
+        <v>2.5</v>
+      </c>
       <c r="O104" s="7"/>
       <c r="P104" s="7"/>
     </row>
@@ -4561,21 +5619,31 @@
       </c>
       <c r="D105" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F105" s="6"/>
+      <c r="F105" s="6">
+        <v>16</v>
+      </c>
       <c r="G105" s="6"/>
-      <c r="H105" s="7"/>
+      <c r="H105" s="7">
+        <v>2</v>
+      </c>
       <c r="I105" s="7">
         <v>2</v>
       </c>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
+      <c r="J105" s="7">
+        <v>2</v>
+      </c>
+      <c r="K105" s="7">
+        <v>2</v>
+      </c>
+      <c r="L105" s="7">
+        <v>2</v>
+      </c>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>

--- a/OYM/_DocumentosComunes/PE.xlsx
+++ b/OYM/_DocumentosComunes/PE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9271375A-4C73-443A-9ABB-546CE42F6149}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65742991-EDDF-4AE7-85A4-384999BFD955}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/OYM/_DocumentosComunes/PE.xlsx
+++ b/OYM/_DocumentosComunes/PE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65742991-EDDF-4AE7-85A4-384999BFD955}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -698,7 +697,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1199,7 +1198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -1210,7 +1209,7 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1218,13 +1217,8 @@
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="1.28515625" customWidth="1"/>
-    <col min="9" max="9" width="1.5703125" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" customWidth="1"/>
-    <col min="11" max="11" width="1.5703125" customWidth="1"/>
-    <col min="12" max="12" width="1.140625" customWidth="1"/>
-    <col min="13" max="13" width="1.5703125" customWidth="1"/>
-    <col min="14" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PE.xlsx
+++ b/OYM/_DocumentosComunes/PE.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$M$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1205,8 +1205,8 @@
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,9 @@
       <c r="F3" s="6">
         <v>12</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>35</v>
+      </c>
       <c r="H3" s="7">
         <v>2</v>
       </c>
@@ -1476,7 +1478,9 @@
       <c r="F6" s="6">
         <v>20</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>35</v>
+      </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
@@ -1558,7 +1562,9 @@
       <c r="F8" s="6">
         <v>16</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>35</v>
+      </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
@@ -3794,7 +3800,9 @@
         <v>2.5</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6">
+        <v>40</v>
+      </c>
       <c r="H62" s="7">
         <v>2</v>
       </c>
@@ -4908,7 +4916,9 @@
       <c r="F88" s="6">
         <v>18</v>
       </c>
-      <c r="G88" s="6"/>
+      <c r="G88" s="6">
+        <v>40</v>
+      </c>
       <c r="H88" s="7">
         <v>2</v>
       </c>

--- a/OYM/_DocumentosComunes/PE.xlsx
+++ b/OYM/_DocumentosComunes/PE.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -667,31 +667,7 @@
     <t>ARMANDO  LLORET ORTIZ</t>
   </si>
   <si>
-    <t>a01</t>
-  </si>
-  <si>
-    <t>a02</t>
-  </si>
-  <si>
-    <t>a03</t>
-  </si>
-  <si>
-    <t>a04</t>
-  </si>
-  <si>
-    <t>a05</t>
-  </si>
-  <si>
-    <t>p01</t>
-  </si>
-  <si>
-    <t>p02</t>
-  </si>
-  <si>
-    <t>p03</t>
-  </si>
-  <si>
-    <t>p04</t>
+    <t>AC</t>
   </si>
 </sst>
 </file>
@@ -743,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -766,11 +742,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -800,6 +787,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,26 +1190,27 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="A1:Q105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="12" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1241,35 +1230,20 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1320,8 +1294,12 @@
       <c r="P2" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <f>D2+E2+F2+G2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1332,12 +1310,12 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="0">H3+I3+J3+K3+L3</f>
+        <f>H3+I3+J3+K3+L3</f>
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E66" si="1">M3+N3+O3+P3</f>
-        <v>7.5</v>
+        <f>M3+N3+O3+P3</f>
+        <v>13</v>
       </c>
       <c r="F3" s="6">
         <v>12</v>
@@ -1364,12 +1342,18 @@
         <v>5</v>
       </c>
       <c r="N3" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <f>D3+E3+F3+G3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1380,17 +1364,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f>H4+I4+J4+K4+L4</f>
         <v>10</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f>M4+N4+O4+P4</f>
+        <v>10</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>40</v>
+      </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
@@ -1410,12 +1396,18 @@
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>D4+E4+F4+G4</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1426,12 +1418,12 @@
         <v>13</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f>H5+I5+J5+K5+L5</f>
         <v>10</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>M5+N5+O5+P5</f>
+        <v>2</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1452,12 +1444,16 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <f>D5+E5+F5+G5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1468,12 +1464,12 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f>H6+I6+J6+K6+L6</f>
         <v>10</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M6+N6+O6+P6</f>
+        <v>10</v>
       </c>
       <c r="F6" s="6">
         <v>20</v>
@@ -1501,9 +1497,15 @@
         <v>5</v>
       </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f>D6+E6+F6+G6</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1514,17 +1516,19 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f>H7+I7+J7+K7+L7</f>
         <v>6</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f>M7+N7+O7+P7</f>
         <v>0</v>
       </c>
       <c r="F7" s="6">
         <v>14</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
@@ -1540,8 +1544,12 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <f>D7+E7+F7+G7</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1552,12 +1560,12 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f>H8+I8+J8+K8+L8</f>
         <v>10</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M8+N8+O8+P8</f>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <v>16</v>
@@ -1583,9 +1591,15 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <f>D8+E8+F8+G8</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1596,15 +1610,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f>H9+I9+J9+K9+L9</f>
         <v>8</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>M9+N9+O9+P9</f>
+        <v>17</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>45</v>
+      </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
@@ -1623,9 +1639,15 @@
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q9">
+        <f>D9+E9+F9+G9</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1636,17 +1658,19 @@
         <v>23</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f>H10+I10+J10+K10+L10</f>
         <v>10</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f>M10+N10+O10+P10</f>
         <v>0</v>
       </c>
       <c r="F10" s="6">
         <v>18</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6">
+        <v>20</v>
+      </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
@@ -1666,8 +1690,12 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <f>D10+E10+F10+G10</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1678,11 +1706,11 @@
         <v>25</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f>H11+I11+J11+K11+L11</f>
         <v>10</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f>M11+N11+O11+P11</f>
         <v>9</v>
       </c>
       <c r="F11" s="6">
@@ -1712,8 +1740,12 @@
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <f>D11+E11+F11+G11</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1724,11 +1756,11 @@
         <v>27</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f>H12+I12+J12+K12+L12</f>
         <v>6</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f>M12+N12+O12+P12</f>
         <v>0</v>
       </c>
       <c r="F12" s="6"/>
@@ -1748,8 +1780,12 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <f>D12+E12+F12+G12</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1760,17 +1796,19 @@
         <v>29</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f>H13+I13+J13+K13+L13</f>
         <v>10</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M13+N13+O13+P13</f>
+        <v>11</v>
       </c>
       <c r="F13" s="6">
         <v>14</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6">
+        <v>40</v>
+      </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
@@ -1791,9 +1829,15 @@
         <v>5</v>
       </c>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <f>D13+E13+F13+G13</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1804,11 +1848,11 @@
         <v>31</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f>H14+I14+J14+K14+L14</f>
         <v>10</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="1"/>
+        <f>M14+N14+O14+P14</f>
         <v>0</v>
       </c>
       <c r="F14" s="6">
@@ -1834,8 +1878,12 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <f>D14+E14+F14+G14</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1846,11 +1894,11 @@
         <v>33</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
+        <f>H15+I15+J15+K15+L15</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="1"/>
+        <f>M15+N15+O15+P15</f>
         <v>0</v>
       </c>
       <c r="F15" s="6">
@@ -1876,8 +1924,12 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <f>D15+E15+F15+G15</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1888,12 +1940,12 @@
         <v>35</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f>H16+I16+J16+K16+L16</f>
         <v>10</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>M16+N16+O16+P16</f>
+        <v>2</v>
       </c>
       <c r="F16" s="6">
         <v>12</v>
@@ -1916,12 +1968,16 @@
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <f>D16+E16+F16+G16</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1932,17 +1988,19 @@
         <v>37</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f>H17+I17+J17+K17+L17</f>
         <v>10</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M17+N17+O17+P17</f>
+        <v>10</v>
       </c>
       <c r="F17" s="6">
         <v>10</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6">
+        <v>40</v>
+      </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
@@ -1963,9 +2021,15 @@
         <v>5</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <f>D17+E17+F17+G17</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1976,17 +2040,19 @@
         <v>39</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
+        <f>H18+I18+J18+K18+L18</f>
         <v>8</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M18+N18+O18+P18</f>
+        <v>9</v>
       </c>
       <c r="F18" s="6">
         <v>18</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6">
+        <v>40</v>
+      </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
@@ -2005,9 +2071,15 @@
         <v>5</v>
       </c>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <f>D18+E18+F18+G18</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2018,12 +2090,12 @@
         <v>41</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="0"/>
+        <f>H19+I19+J19+K19+L19</f>
         <v>10</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>M19+N19+O19+P19</f>
+        <v>2</v>
       </c>
       <c r="F19" s="6">
         <v>8</v>
@@ -2046,12 +2118,16 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <f>D19+E19+F19+G19</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2062,12 +2138,12 @@
         <v>43</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
+        <f>H20+I20+J20+K20+L20</f>
         <v>10</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f>M20+N20+O20+P20</f>
+        <v>6</v>
       </c>
       <c r="F20" s="6">
         <v>12</v>
@@ -2092,12 +2168,16 @@
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <f>D20+E20+F20+G20</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2108,17 +2188,19 @@
         <v>45</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f>H21+I21+J21+K21+L21</f>
         <v>10</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>M21+N21+O21+P21</f>
+        <v>2</v>
       </c>
       <c r="F21" s="6">
         <v>16</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6">
+        <v>20</v>
+      </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
@@ -2136,12 +2218,16 @@
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <f>D21+E21+F21+G21</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2152,17 +2238,19 @@
         <v>47</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f>H22+I22+J22+K22+L22</f>
         <v>10</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M22+N22+O22+P22</f>
+        <v>9</v>
       </c>
       <c r="F22" s="6">
         <v>16</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6">
+        <v>40</v>
+      </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
@@ -2183,9 +2271,15 @@
         <v>5</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <f>D22+E22+F22+G22</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2196,11 +2290,11 @@
         <v>49</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
+        <f>H23+I23+J23+K23+L23</f>
         <v>6</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="1"/>
+        <f>M23+N23+O23+P23</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
@@ -2220,8 +2314,12 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <f>D23+E23+F23+G23</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2232,17 +2330,19 @@
         <v>51</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f>H24+I24+J24+K24+L24</f>
         <v>10</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>M24+N24+O24+P24</f>
+        <v>11</v>
       </c>
       <c r="F24" s="6">
         <v>14</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6">
+        <v>45</v>
+      </c>
       <c r="H24" s="7">
         <v>2</v>
       </c>
@@ -2265,9 +2365,15 @@
         <v>5</v>
       </c>
       <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f>D24+E24+F24+G24</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2278,17 +2384,19 @@
         <v>53</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f>H25+I25+J25+K25+L25</f>
         <v>8</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M25+N25+O25+P25</f>
+        <v>10</v>
       </c>
       <c r="F25" s="6">
         <v>12</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6">
+        <v>40</v>
+      </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
@@ -2305,9 +2413,15 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <f>D25+E25+F25+G25</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2318,11 +2432,11 @@
         <v>55</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="0"/>
+        <f>H26+I26+J26+K26+L26</f>
         <v>6</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
+        <f>M26+N26+O26+P26</f>
         <v>0</v>
       </c>
       <c r="F26" s="6"/>
@@ -2342,8 +2456,12 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <f>D26+E26+F26+G26</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2354,11 +2472,11 @@
         <v>57</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f>H27+I27+J27+K27+L27</f>
         <v>10</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="1"/>
+        <f>M27+N27+O27+P27</f>
         <v>5</v>
       </c>
       <c r="F27" s="6">
@@ -2386,8 +2504,12 @@
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <f>D27+E27+F27+G27</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2398,11 +2520,11 @@
         <v>59</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f>H28+I28+J28+K28+L28</f>
         <v>10</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="1"/>
+        <f>M28+N28+O28+P28</f>
         <v>0</v>
       </c>
       <c r="F28" s="6">
@@ -2428,8 +2550,12 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <f>D28+E28+F28+G28</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2440,11 +2566,11 @@
         <v>61</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f>H29+I29+J29+K29+L29</f>
         <v>8</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="1"/>
+        <f>M29+N29+O29+P29</f>
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
@@ -2466,8 +2592,12 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <f>D29+E29+F29+G29</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2478,17 +2608,19 @@
         <v>63</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="0"/>
+        <f>H30+I30+J30+K30+L30</f>
         <v>10</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M30+N30+O30+P30</f>
+        <v>8</v>
       </c>
       <c r="F30" s="6">
         <v>12</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="6">
+        <v>45</v>
+      </c>
       <c r="H30" s="7">
         <v>2</v>
       </c>
@@ -2509,9 +2641,15 @@
         <v>5</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <f>D30+E30+F30+G30</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2522,11 +2660,11 @@
         <v>65</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
+        <f>H31+I31+J31+K31+L31</f>
         <v>6</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="1"/>
+        <f>M31+N31+O31+P31</f>
         <v>0</v>
       </c>
       <c r="F31" s="6">
@@ -2548,8 +2686,12 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <f>D31+E31+F31+G31</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2560,11 +2702,11 @@
         <v>67</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f>H32+I32+J32+K32+L32</f>
         <v>6</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="1"/>
+        <f>M32+N32+O32+P32</f>
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
@@ -2584,8 +2726,12 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <f>D32+E32+F32+G32</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2596,11 +2742,11 @@
         <v>69</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f>H33+I33+J33+K33+L33</f>
         <v>6</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="1"/>
+        <f>M33+N33+O33+P33</f>
         <v>0</v>
       </c>
       <c r="F33" s="6"/>
@@ -2620,8 +2766,12 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <f>D33+E33+F33+G33</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2632,17 +2782,19 @@
         <v>71</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
+        <f>H34+I34+J34+K34+L34</f>
         <v>8</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M34+N34+O34+P34</f>
+        <v>5</v>
       </c>
       <c r="F34" s="6">
         <v>12</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6">
+        <v>50</v>
+      </c>
       <c r="H34" s="7">
         <v>2</v>
       </c>
@@ -2659,9 +2811,15 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="1:16" s="12" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <f>D34+E34+F34+G34</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="12" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2672,11 +2830,11 @@
         <v>73</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="0"/>
+        <f>H35+I35+J35+K35+L35</f>
         <v>10</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="1"/>
+        <f>M35+N35+O35+P35</f>
         <v>0</v>
       </c>
       <c r="F35" s="10">
@@ -2702,8 +2860,12 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <f>D35+E35+F35+G35</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2714,11 +2876,11 @@
         <v>75</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="0"/>
+        <f>H36+I36+J36+K36+L36</f>
         <v>6</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="1"/>
+        <f>M36+N36+O36+P36</f>
         <v>0</v>
       </c>
       <c r="F36" s="6">
@@ -2740,8 +2902,12 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <f>D36+E36+F36+G36</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2752,17 +2918,19 @@
         <v>77</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="0"/>
+        <f>H37+I37+J37+K37+L37</f>
         <v>10</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M37+N37+O37+P37</f>
+        <v>3</v>
       </c>
       <c r="F37" s="6">
         <v>12</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6">
+        <v>45</v>
+      </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
@@ -2781,9 +2949,15 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <f>D37+E37+F37+G37</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -2794,17 +2968,19 @@
         <v>79</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
+        <f>H38+I38+J38+K38+L38</f>
         <v>8</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M38+N38+O38+P38</f>
+        <v>18</v>
       </c>
       <c r="F38" s="6">
         <v>14</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6">
+        <v>30</v>
+      </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
@@ -2823,9 +2999,15 @@
         <v>5</v>
       </c>
       <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q38">
+        <f>D38+E38+F38+G38</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2836,14 +3018,16 @@
         <v>81</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="0"/>
+        <f>H39+I39+J39+K39+L39</f>
         <v>10</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="1"/>
+        <f>M39+N39+O39+P39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6">
+        <v>14</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="7">
         <v>2</v>
@@ -2864,8 +3048,12 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
-    </row>
-    <row r="40" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <f>D39+E39+F39+G39</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -2876,11 +3064,11 @@
         <v>83</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="0"/>
+        <f>H40+I40+J40+K40+L40</f>
         <v>6</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="1"/>
+        <f>M40+N40+O40+P40</f>
         <v>0</v>
       </c>
       <c r="F40" s="6"/>
@@ -2900,8 +3088,12 @@
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
-    </row>
-    <row r="41" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <f>D40+E40+F40+G40</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -2912,14 +3104,16 @@
         <v>85</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="0"/>
+        <f>H41+I41+J41+K41+L41</f>
         <v>8</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F41" s="6"/>
+        <f>M41+N41+O41+P41</f>
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>18</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7">
         <v>2</v>
@@ -2936,12 +3130,16 @@
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
-    </row>
-    <row r="42" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <f>D41+E41+F41+G41</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -2952,11 +3150,11 @@
         <v>87</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="0"/>
+        <f>H42+I42+J42+K42+L42</f>
         <v>6</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="1"/>
+        <f>M42+N42+O42+P42</f>
         <v>5</v>
       </c>
       <c r="F42" s="6">
@@ -2980,8 +3178,12 @@
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
-    </row>
-    <row r="43" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <f>D42+E42+F42+G42</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -2992,11 +3194,11 @@
         <v>89</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="0"/>
+        <f>H43+I43+J43+K43+L43</f>
         <v>8</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="1"/>
+        <f>M43+N43+O43+P43</f>
         <v>7</v>
       </c>
       <c r="F43" s="6">
@@ -3024,8 +3226,12 @@
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
-    </row>
-    <row r="44" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <f>D43+E43+F43+G43</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -3036,11 +3242,11 @@
         <v>91</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="0"/>
+        <f>H44+I44+J44+K44+L44</f>
         <v>10</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
+        <f>M44+N44+O44+P44</f>
         <v>5</v>
       </c>
       <c r="F44" s="6"/>
@@ -3066,8 +3272,12 @@
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
-    </row>
-    <row r="45" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <f>D44+E44+F44+G44</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -3078,11 +3288,11 @@
         <v>93</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="0"/>
+        <f>H45+I45+J45+K45+L45</f>
         <v>8</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="1"/>
+        <f>M45+N45+O45+P45</f>
         <v>5</v>
       </c>
       <c r="F45" s="6"/>
@@ -3106,8 +3316,12 @@
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-    </row>
-    <row r="46" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <f>D45+E45+F45+G45</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -3118,17 +3332,19 @@
         <v>95</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="0"/>
+        <f>H46+I46+J46+K46+L46</f>
         <v>10</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M46+N46+O46+P46</f>
+        <v>1</v>
       </c>
       <c r="F46" s="6">
         <v>14</v>
       </c>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6">
+        <v>50</v>
+      </c>
       <c r="H46" s="7">
         <v>2</v>
       </c>
@@ -3147,9 +3363,15 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <f>D46+E46+F46+G46</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3160,11 +3382,11 @@
         <v>97</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="0"/>
+        <f>H47+I47+J47+K47+L47</f>
         <v>6</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f>M47+N47+O47+P47</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
@@ -3184,8 +3406,12 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <f>D47+E47+F47+G47</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3196,11 +3422,11 @@
         <v>99</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="0"/>
+        <f>H48+I48+J48+K48+L48</f>
         <v>6</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f>M48+N48+O48+P48</f>
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
@@ -3220,8 +3446,12 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
-    </row>
-    <row r="49" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <f>D48+E48+F48+G48</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -3232,12 +3462,12 @@
         <v>101</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="0"/>
+        <f>H49+I49+J49+K49+L49</f>
         <v>10</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>M49+N49+O49+P49</f>
+        <v>2</v>
       </c>
       <c r="F49" s="6">
         <v>14</v>
@@ -3260,12 +3490,16 @@
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
-    </row>
-    <row r="50" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <f>D49+E49+F49+G49</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -3276,17 +3510,19 @@
         <v>103</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="0"/>
+        <f>H50+I50+J50+K50+L50</f>
         <v>6</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M50+N50+O50+P50</f>
+        <v>8</v>
       </c>
       <c r="F50" s="6">
         <v>16</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6">
+        <v>50</v>
+      </c>
       <c r="H50" s="7">
         <v>2</v>
       </c>
@@ -3303,9 +3539,15 @@
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <f>D50+E50+F50+G50</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -3316,11 +3558,11 @@
         <v>105</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="0"/>
+        <f>H51+I51+J51+K51+L51</f>
         <v>8</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="1"/>
+        <f>M51+N51+O51+P51</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
@@ -3342,8 +3584,12 @@
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
-    </row>
-    <row r="52" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <f>D51+E51+F51+G51</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3354,17 +3600,19 @@
         <v>107</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="0"/>
+        <f>H52+I52+J52+K52+L52</f>
         <v>8</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M52+N52+O52+P52</f>
+        <v>3</v>
       </c>
       <c r="F52" s="6">
         <v>14</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6">
+        <v>50</v>
+      </c>
       <c r="H52" s="7">
         <v>2</v>
       </c>
@@ -3381,9 +3629,15 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P52" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <f>D52+E52+F52+G52</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -3394,17 +3648,19 @@
         <v>109</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="0"/>
+        <f>H53+I53+J53+K53+L53</f>
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M53+N53+O53+P53</f>
+        <v>12</v>
       </c>
       <c r="F53" s="6">
         <v>18</v>
       </c>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6">
+        <v>50</v>
+      </c>
       <c r="H53" s="7">
         <v>2</v>
       </c>
@@ -3425,9 +3681,15 @@
         <v>5</v>
       </c>
       <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-    </row>
-    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q53">
+        <f>D53+E53+F53+G53</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -3438,11 +3700,11 @@
         <v>111</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="0"/>
+        <f>H54+I54+J54+K54+L54</f>
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="1"/>
+        <f>M54+N54+O54+P54</f>
         <v>0</v>
       </c>
       <c r="F54" s="6">
@@ -3468,8 +3730,12 @@
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
-    </row>
-    <row r="55" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <f>D54+E54+F54+G54</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -3480,17 +3746,19 @@
         <v>113</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="0"/>
+        <f>H55+I55+J55+K55+L55</f>
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M55+N55+O55+P55</f>
+        <v>6</v>
       </c>
       <c r="F55" s="6">
         <v>14</v>
       </c>
-      <c r="G55" s="6"/>
+      <c r="G55" s="6">
+        <v>50</v>
+      </c>
       <c r="H55" s="7">
         <v>2</v>
       </c>
@@ -3511,9 +3779,15 @@
         <v>5</v>
       </c>
       <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-    </row>
-    <row r="56" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P55" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <f>D55+E55+F55+G55</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -3524,12 +3798,12 @@
         <v>115</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="0"/>
+        <f>H56+I56+J56+K56+L56</f>
         <v>10</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f>M56+N56+O56+P56</f>
+        <v>6</v>
       </c>
       <c r="F56" s="6">
         <v>16</v>
@@ -3554,12 +3828,16 @@
         <v>4</v>
       </c>
       <c r="N56" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
-    </row>
-    <row r="57" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <f>D56+E56+F56+G56</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -3570,17 +3848,19 @@
         <v>117</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="0"/>
+        <f>H57+I57+J57+K57+L57</f>
         <v>10</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>M57+N57+O57+P57</f>
+        <v>16</v>
       </c>
       <c r="F57" s="6">
         <v>14</v>
       </c>
-      <c r="G57" s="6"/>
+      <c r="G57" s="6">
+        <v>50</v>
+      </c>
       <c r="H57" s="7">
         <v>2</v>
       </c>
@@ -3603,9 +3883,15 @@
         <v>5</v>
       </c>
       <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-    </row>
-    <row r="58" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P57" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <f>D57+E57+F57+G57</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3616,17 +3902,19 @@
         <v>119</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="0"/>
+        <f>H58+I58+J58+K58+L58</f>
         <v>10</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M58+N58+O58+P58</f>
+        <v>14</v>
       </c>
       <c r="F58" s="6">
         <v>16</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6">
+        <v>50</v>
+      </c>
       <c r="H58" s="7">
         <v>2</v>
       </c>
@@ -3647,9 +3935,15 @@
         <v>5</v>
       </c>
       <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-    </row>
-    <row r="59" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P58" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <f>D58+E58+F58+G58</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -3660,17 +3954,19 @@
         <v>121</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="0"/>
+        <f>H59+I59+J59+K59+L59</f>
         <v>10</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f>M59+N59+O59+P59</f>
+        <v>14</v>
       </c>
       <c r="F59" s="6">
         <v>16</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="G59" s="6">
+        <v>50</v>
+      </c>
       <c r="H59" s="7">
         <v>2</v>
       </c>
@@ -3690,12 +3986,18 @@
         <v>4</v>
       </c>
       <c r="N59" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-    </row>
-    <row r="60" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P59" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q59">
+        <f>D59+E59+F59+G59</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -3706,17 +4008,19 @@
         <v>123</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="0"/>
+        <f>H60+I60+J60+K60+L60</f>
         <v>10</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M60+N60+O60+P60</f>
+        <v>6</v>
       </c>
       <c r="F60" s="6">
         <v>14</v>
       </c>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6">
+        <v>45</v>
+      </c>
       <c r="H60" s="7">
         <v>2</v>
       </c>
@@ -3737,9 +4041,15 @@
         <v>5</v>
       </c>
       <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-    </row>
-    <row r="61" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P60" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <f>D60+E60+F60+G60</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -3750,17 +4060,19 @@
         <v>125</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="0"/>
+        <f>H61+I61+J61+K61+L61</f>
         <v>10</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M61+N61+O61+P61</f>
+        <v>2</v>
       </c>
       <c r="F61" s="6">
         <v>18</v>
       </c>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6">
+        <v>40</v>
+      </c>
       <c r="H61" s="7">
         <v>2</v>
       </c>
@@ -3779,9 +4091,15 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-    </row>
-    <row r="62" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <f>D61+E61+F61+G61</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -3792,16 +4110,18 @@
         <v>127</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="0"/>
+        <f>H62+I62+J62+K62+L62</f>
         <v>10</v>
       </c>
       <c r="E62" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F62" s="6"/>
+        <f>M62+N62+O62+P62</f>
+        <v>4</v>
+      </c>
+      <c r="F62" s="6">
+        <v>16</v>
+      </c>
       <c r="G62" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
@@ -3820,12 +4140,18 @@
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-    </row>
-    <row r="63" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P62" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <f>D62+E62+F62+G62</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -3836,17 +4162,19 @@
         <v>129</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="0"/>
+        <f>H63+I63+J63+K63+L63</f>
         <v>10</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M63+N63+O63+P63</f>
+        <v>4</v>
       </c>
       <c r="F63" s="6">
         <v>16</v>
       </c>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6">
+        <v>50</v>
+      </c>
       <c r="H63" s="7">
         <v>2</v>
       </c>
@@ -3865,9 +4193,15 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-    </row>
-    <row r="64" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P63" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <f>D63+E63+F63+G63</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -3878,17 +4212,19 @@
         <v>131</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="0"/>
+        <f>H64+I64+J64+K64+L64</f>
         <v>10</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M64+N64+O64+P64</f>
+        <v>3</v>
       </c>
       <c r="F64" s="6">
         <v>12</v>
       </c>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6">
+        <v>50</v>
+      </c>
       <c r="H64" s="7">
         <v>2</v>
       </c>
@@ -3907,9 +4243,15 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-    </row>
-    <row r="65" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P64" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <f>D64+E64+F64+G64</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -3920,17 +4262,19 @@
         <v>133</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="0"/>
+        <f>H65+I65+J65+K65+L65</f>
         <v>10</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>M65+N65+O65+P65</f>
+        <v>10</v>
       </c>
       <c r="F65" s="6">
         <v>10</v>
       </c>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6">
+        <v>50</v>
+      </c>
       <c r="H65" s="7">
         <v>2</v>
       </c>
@@ -3953,9 +4297,15 @@
         <v>3</v>
       </c>
       <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-    </row>
-    <row r="66" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P65" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <f>D65+E65+F65+G65</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -3966,11 +4316,11 @@
         <v>135</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="0"/>
+        <f>H66+I66+J66+K66+L66</f>
         <v>8</v>
       </c>
       <c r="E66" s="6">
-        <f t="shared" si="1"/>
+        <f>M66+N66+O66+P66</f>
         <v>5</v>
       </c>
       <c r="F66" s="6">
@@ -3996,8 +4346,12 @@
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
-    </row>
-    <row r="67" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <f>D66+E66+F66+G66</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -4008,15 +4362,17 @@
         <v>137</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" ref="D67:D105" si="2">H67+I67+J67+K67+L67</f>
+        <f>H67+I67+J67+K67+L67</f>
         <v>10</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" ref="E67:E105" si="3">M67+N67+O67+P67</f>
-        <v>9</v>
+        <f>M67+N67+O67+P67</f>
+        <v>15</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6">
+        <v>45</v>
+      </c>
       <c r="H67" s="7">
         <v>2</v>
       </c>
@@ -4039,9 +4395,15 @@
         <v>5</v>
       </c>
       <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-    </row>
-    <row r="68" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P67" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q67">
+        <f>D67+E67+F67+G67</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -4052,17 +4414,19 @@
         <v>139</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="2"/>
+        <f>H68+I68+J68+K68+L68</f>
         <v>10</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>M68+N68+O68+P68</f>
+        <v>9</v>
       </c>
       <c r="F68" s="6">
         <v>16</v>
       </c>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6">
+        <v>45</v>
+      </c>
       <c r="H68" s="7">
         <v>2</v>
       </c>
@@ -4083,9 +4447,15 @@
       </c>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-    </row>
-    <row r="69" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P68" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <f>D68+E68+F68+G68</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -4096,15 +4466,19 @@
         <v>141</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="2"/>
+        <f>H69+I69+J69+K69+L69</f>
         <v>10</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+        <f>M69+N69+O69+P69</f>
+        <v>7</v>
+      </c>
+      <c r="F69" s="6">
+        <v>18</v>
+      </c>
+      <c r="G69" s="6">
+        <v>45</v>
+      </c>
       <c r="H69" s="7">
         <v>2</v>
       </c>
@@ -4124,12 +4498,18 @@
         <v>4</v>
       </c>
       <c r="N69" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-    </row>
-    <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P69" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <f>D69+E69+F69+G69</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -4140,17 +4520,19 @@
         <v>143</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="2"/>
+        <f>H70+I70+J70+K70+L70</f>
         <v>10</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>M70+N70+O70+P70</f>
+        <v>6</v>
       </c>
       <c r="F70" s="6">
         <v>14</v>
       </c>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6">
+        <v>45</v>
+      </c>
       <c r="H70" s="7">
         <v>2</v>
       </c>
@@ -4168,12 +4550,18 @@
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-    </row>
-    <row r="71" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P70" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q70">
+        <f>D70+E70+F70+G70</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -4184,17 +4572,19 @@
         <v>145</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="2"/>
+        <f>H71+I71+J71+K71+L71</f>
         <v>10</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M71+N71+O71+P71</f>
+        <v>14</v>
       </c>
       <c r="F71" s="6">
         <v>16</v>
       </c>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6">
+        <v>50</v>
+      </c>
       <c r="H71" s="7">
         <v>2</v>
       </c>
@@ -4215,9 +4605,15 @@
         <v>5</v>
       </c>
       <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-    </row>
-    <row r="72" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P71" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q71">
+        <f>D71+E71+F71+G71</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -4228,17 +4624,19 @@
         <v>147</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="2"/>
+        <f>H72+I72+J72+K72+L72</f>
         <v>10</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>M72+N72+O72+P72</f>
+        <v>2</v>
       </c>
       <c r="F72" s="6">
         <v>18</v>
       </c>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6">
+        <v>40</v>
+      </c>
       <c r="H72" s="7">
         <v>2</v>
       </c>
@@ -4257,9 +4655,15 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-    </row>
-    <row r="73" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P72" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <f>D72+E72+F72+G72</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -4270,17 +4674,19 @@
         <v>149</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="2"/>
+        <f>H73+I73+J73+K73+L73</f>
         <v>10</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>M73+N73+O73+P73</f>
+        <v>10</v>
       </c>
       <c r="F73" s="6">
         <v>10</v>
       </c>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6">
+        <v>40</v>
+      </c>
       <c r="H73" s="7">
         <v>2</v>
       </c>
@@ -4298,12 +4704,18 @@
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-    </row>
-    <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q73">
+        <f>D73+E73+F73+G73</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -4314,17 +4726,19 @@
         <v>151</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="2"/>
+        <f>H74+I74+J74+K74+L74</f>
         <v>8</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M74+N74+O74+P74</f>
+        <v>6</v>
       </c>
       <c r="F74" s="6">
         <v>16</v>
       </c>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6">
+        <v>45</v>
+      </c>
       <c r="H74" s="7">
         <v>2</v>
       </c>
@@ -4343,9 +4757,15 @@
         <v>5</v>
       </c>
       <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-    </row>
-    <row r="75" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P74" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <f>D74+E74+F74+G74</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -4356,11 +4776,11 @@
         <v>153</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="2"/>
+        <f>H75+I75+J75+K75+L75</f>
         <v>8</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="3"/>
+        <f>M75+N75+O75+P75</f>
         <v>0</v>
       </c>
       <c r="F75" s="6">
@@ -4384,8 +4804,12 @@
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
-    </row>
-    <row r="76" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <f>D75+E75+F75+G75</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -4396,17 +4820,19 @@
         <v>155</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="2"/>
+        <f>H76+I76+J76+K76+L76</f>
         <v>6</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>M76+N76+O76+P76</f>
+        <v>14</v>
       </c>
       <c r="F76" s="6">
         <v>10</v>
       </c>
-      <c r="G76" s="6"/>
+      <c r="G76" s="6">
+        <v>40</v>
+      </c>
       <c r="H76" s="7">
         <v>2</v>
       </c>
@@ -4420,12 +4846,18 @@
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-    </row>
-    <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P76" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q76">
+        <f>D76+E76+F76+G76</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -4436,12 +4868,12 @@
         <v>157</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="2"/>
+        <f>H77+I77+J77+K77+L77</f>
         <v>8</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
+        <f>M77+N77+O77+P77</f>
+        <v>7</v>
       </c>
       <c r="F77" s="6">
         <v>16</v>
@@ -4464,12 +4896,16 @@
         <v>5</v>
       </c>
       <c r="N77" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
-    </row>
-    <row r="78" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <f>D77+E77+F77+G77</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -4480,17 +4916,19 @@
         <v>159</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="2"/>
+        <f>H78+I78+J78+K78+L78</f>
         <v>8</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
+        <f>M78+N78+O78+P78</f>
+        <v>16</v>
       </c>
       <c r="F78" s="6">
         <v>16</v>
       </c>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6">
+        <v>50</v>
+      </c>
       <c r="H78" s="7">
         <v>2</v>
       </c>
@@ -4508,12 +4946,18 @@
         <v>5</v>
       </c>
       <c r="N78" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-    </row>
-    <row r="79" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P78" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <f>D78+E78+F78+G78</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -4524,17 +4968,19 @@
         <v>161</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="2"/>
+        <f>H79+I79+J79+K79+L79</f>
         <v>10</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="3"/>
-        <v>6.5</v>
+        <f>M79+N79+O79+P79</f>
+        <v>11</v>
       </c>
       <c r="F79" s="6">
         <v>14</v>
       </c>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6">
+        <v>40</v>
+      </c>
       <c r="H79" s="7">
         <v>2</v>
       </c>
@@ -4554,12 +5000,18 @@
         <v>4</v>
       </c>
       <c r="N79" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-    </row>
-    <row r="80" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P79" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <f>D79+E79+F79+G79</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -4570,17 +5022,19 @@
         <v>163</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="2"/>
+        <f>H80+I80+J80+K80+L80</f>
         <v>10</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>M80+N80+O80+P80</f>
+        <v>10</v>
       </c>
       <c r="F80" s="6">
         <v>10</v>
       </c>
-      <c r="G80" s="6"/>
+      <c r="G80" s="6">
+        <v>40</v>
+      </c>
       <c r="H80" s="7">
         <v>2</v>
       </c>
@@ -4599,9 +5053,15 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-    </row>
-    <row r="81" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P80" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q80">
+        <f>D80+E80+F80+G80</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -4612,17 +5072,19 @@
         <v>165</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="2"/>
+        <f>H81+I81+J81+K81+L81</f>
         <v>10</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M81+N81+O81+P81</f>
+        <v>8</v>
       </c>
       <c r="F81" s="6">
         <v>12</v>
       </c>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6">
+        <v>50</v>
+      </c>
       <c r="H81" s="7">
         <v>2</v>
       </c>
@@ -4643,9 +5105,15 @@
         <v>5</v>
       </c>
       <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-    </row>
-    <row r="82" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P81" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <f>D81+E81+F81+G81</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -4656,11 +5124,11 @@
         <v>167</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="2"/>
+        <f>H82+I82+J82+K82+L82</f>
         <v>8</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="3"/>
+        <f>M82+N82+O82+P82</f>
         <v>0</v>
       </c>
       <c r="F82" s="6">
@@ -4684,8 +5152,12 @@
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
-    </row>
-    <row r="83" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <f>D82+E82+F82+G82</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -4696,17 +5168,19 @@
         <v>169</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="2"/>
+        <f>H83+I83+J83+K83+L83</f>
         <v>10</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M83+N83+O83+P83</f>
+        <v>14</v>
       </c>
       <c r="F83" s="6">
         <v>16</v>
       </c>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6">
+        <v>50</v>
+      </c>
       <c r="H83" s="7">
         <v>2</v>
       </c>
@@ -4727,9 +5201,15 @@
         <v>5</v>
       </c>
       <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-    </row>
-    <row r="84" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P83" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q83">
+        <f>D83+E83+F83+G83</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -4740,11 +5220,11 @@
         <v>171</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="2"/>
+        <f>H84+I84+J84+K84+L84</f>
         <v>8</v>
       </c>
       <c r="E84" s="6">
-        <f t="shared" si="3"/>
+        <f>M84+N84+O84+P84</f>
         <v>0</v>
       </c>
       <c r="F84" s="6"/>
@@ -4766,8 +5246,12 @@
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
-    </row>
-    <row r="85" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <f>D84+E84+F84+G84</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -4778,15 +5262,19 @@
         <v>173</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="2"/>
+        <f>H85+I85+J85+K85+L85</f>
         <v>8</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+        <f>M85+N85+O85+P85</f>
+        <v>9</v>
+      </c>
+      <c r="F85" s="6">
+        <v>18</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45</v>
+      </c>
       <c r="H85" s="7">
         <v>2</v>
       </c>
@@ -4804,12 +5292,18 @@
         <v>4</v>
       </c>
       <c r="N85" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-    </row>
-    <row r="86" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P85" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <f>D85+E85+F85+G85</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -4820,15 +5314,19 @@
         <v>175</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="2"/>
+        <f>H86+I86+J86+K86+L86</f>
         <v>10</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+        <f>M86+N86+O86+P86</f>
+        <v>12</v>
+      </c>
+      <c r="F86" s="6">
+        <v>18</v>
+      </c>
+      <c r="G86" s="6">
+        <v>30</v>
+      </c>
       <c r="H86" s="7">
         <v>2</v>
       </c>
@@ -4849,9 +5347,15 @@
         <v>5</v>
       </c>
       <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-    </row>
-    <row r="87" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P86" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q86">
+        <f>D86+E86+F86+G86</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -4862,17 +5366,19 @@
         <v>177</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="2"/>
+        <f>H87+I87+J87+K87+L87</f>
         <v>10</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>M87+N87+O87+P87</f>
+        <v>7</v>
       </c>
       <c r="F87" s="6">
         <v>18</v>
       </c>
-      <c r="G87" s="6"/>
+      <c r="G87" s="6">
+        <v>50</v>
+      </c>
       <c r="H87" s="7">
         <v>2</v>
       </c>
@@ -4890,12 +5396,18 @@
       </c>
       <c r="M87" s="7"/>
       <c r="N87" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-    </row>
-    <row r="88" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P87" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q87">
+        <f>D87+E87+F87+G87</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -4906,18 +5418,18 @@
         <v>179</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="2"/>
+        <f>H88+I88+J88+K88+L88</f>
         <v>10</v>
       </c>
       <c r="E88" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>M88+N88+O88+P88</f>
+        <v>2</v>
       </c>
       <c r="F88" s="6">
         <v>18</v>
       </c>
       <c r="G88" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H88" s="7">
         <v>2</v>
@@ -4937,9 +5449,15 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-    </row>
-    <row r="89" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P88" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <f>D88+E88+F88+G88</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -4950,11 +5468,11 @@
         <v>181</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="2"/>
+        <f>H89+I89+J89+K89+L89</f>
         <v>8</v>
       </c>
       <c r="E89" s="6">
-        <f t="shared" si="3"/>
+        <f>M89+N89+O89+P89</f>
         <v>4</v>
       </c>
       <c r="F89" s="6">
@@ -4980,8 +5498,12 @@
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
-    </row>
-    <row r="90" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <f>D89+E89+F89+G89</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -4992,17 +5514,19 @@
         <v>183</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="2"/>
+        <f>H90+I90+J90+K90+L90</f>
         <v>10</v>
       </c>
       <c r="E90" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M90+N90+O90+P90</f>
+        <v>8</v>
       </c>
       <c r="F90" s="6">
         <v>12</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6">
+        <v>50</v>
+      </c>
       <c r="H90" s="7">
         <v>2</v>
       </c>
@@ -5023,9 +5547,15 @@
         <v>5</v>
       </c>
       <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-    </row>
-    <row r="91" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P90" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <f>D90+E90+F90+G90</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -5036,11 +5566,11 @@
         <v>185</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="2"/>
+        <f>H91+I91+J91+K91+L91</f>
         <v>8</v>
       </c>
       <c r="E91" s="6">
-        <f t="shared" si="3"/>
+        <f>M91+N91+O91+P91</f>
         <v>0</v>
       </c>
       <c r="F91" s="6">
@@ -5064,8 +5594,12 @@
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
-    </row>
-    <row r="92" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <f>D91+E91+F91+G91</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -5076,17 +5610,19 @@
         <v>187</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="2"/>
+        <f>H92+I92+J92+K92+L92</f>
         <v>10</v>
       </c>
       <c r="E92" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M92+N92+O92+P92</f>
+        <v>8</v>
       </c>
       <c r="F92" s="6">
         <v>12</v>
       </c>
-      <c r="G92" s="6"/>
+      <c r="G92" s="6">
+        <v>45</v>
+      </c>
       <c r="H92" s="7">
         <v>2</v>
       </c>
@@ -5107,9 +5643,15 @@
         <v>5</v>
       </c>
       <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-    </row>
-    <row r="93" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P92" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <f>D92+E92+F92+G92</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -5120,11 +5662,11 @@
         <v>189</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="2"/>
+        <f>H93+I93+J93+K93+L93</f>
         <v>8</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="3"/>
+        <f>M93+N93+O93+P93</f>
         <v>5</v>
       </c>
       <c r="F93" s="6">
@@ -5150,8 +5692,12 @@
       </c>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
-    </row>
-    <row r="94" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <f>D93+E93+F93+G93</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -5162,12 +5708,12 @@
         <v>191</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="2"/>
+        <f>H94+I94+J94+K94+L94</f>
         <v>10</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>M94+N94+O94+P94</f>
+        <v>2</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -5188,12 +5734,16 @@
       </c>
       <c r="M94" s="7"/>
       <c r="N94" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
-    </row>
-    <row r="95" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <f>D94+E94+F94+G94</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -5204,17 +5754,19 @@
         <v>193</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="2"/>
+        <f>H95+I95+J95+K95+L95</f>
         <v>10</v>
       </c>
       <c r="E95" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M95+N95+O95+P95</f>
+        <v>14</v>
       </c>
       <c r="F95" s="6">
         <v>16</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="6">
+        <v>50</v>
+      </c>
       <c r="H95" s="7">
         <v>2</v>
       </c>
@@ -5235,9 +5787,15 @@
         <v>5</v>
       </c>
       <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-    </row>
-    <row r="96" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P95" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q95">
+        <f>D95+E95+F95+G95</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -5248,17 +5806,19 @@
         <v>195</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="2"/>
+        <f>H96+I96+J96+K96+L96</f>
         <v>10</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>M96+N96+O96+P96</f>
+        <v>10</v>
       </c>
       <c r="F96" s="6">
         <v>10</v>
       </c>
-      <c r="G96" s="6"/>
+      <c r="G96" s="6">
+        <v>45</v>
+      </c>
       <c r="H96" s="7">
         <v>2</v>
       </c>
@@ -5281,9 +5841,15 @@
         <v>5</v>
       </c>
       <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-    </row>
-    <row r="97" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P96" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <f>D96+E96+F96+G96</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -5294,15 +5860,17 @@
         <v>197</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="2"/>
+        <f>H97+I97+J97+K97+L97</f>
         <v>10</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>M97+N97+O97+P97</f>
+        <v>10</v>
       </c>
       <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="G97" s="6">
+        <v>50</v>
+      </c>
       <c r="H97" s="7">
         <v>2</v>
       </c>
@@ -5323,9 +5891,15 @@
         <v>5</v>
       </c>
       <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-    </row>
-    <row r="98" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P97" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q97">
+        <f>D97+E97+F97+G97</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -5336,15 +5910,19 @@
         <v>199</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="2"/>
+        <f>H98+I98+J98+K98+L98</f>
         <v>8</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+        <f>M98+N98+O98+P98</f>
+        <v>14</v>
+      </c>
+      <c r="F98" s="6">
+        <v>18</v>
+      </c>
+      <c r="G98" s="6">
+        <v>50</v>
+      </c>
       <c r="H98" s="7">
         <v>2</v>
       </c>
@@ -5363,9 +5941,15 @@
         <v>5</v>
       </c>
       <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-    </row>
-    <row r="99" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P98" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q98">
+        <f>D98+E98+F98+G98</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -5376,17 +5960,19 @@
         <v>201</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="2"/>
+        <f>H99+I99+J99+K99+L99</f>
         <v>10</v>
       </c>
       <c r="E99" s="6">
-        <f t="shared" si="3"/>
-        <v>6.5</v>
+        <f>M99+N99+O99+P99</f>
+        <v>9</v>
       </c>
       <c r="F99" s="6">
         <v>16</v>
       </c>
-      <c r="G99" s="6"/>
+      <c r="G99" s="6">
+        <v>40</v>
+      </c>
       <c r="H99" s="7">
         <v>2</v>
       </c>
@@ -5406,12 +5992,18 @@
         <v>4</v>
       </c>
       <c r="N99" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-    </row>
-    <row r="100" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P99" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <f>D99+E99+F99+G99</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -5422,11 +6014,11 @@
         <v>203</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="2"/>
+        <f>H100+I100+J100+K100+L100</f>
         <v>8</v>
       </c>
       <c r="E100" s="6">
-        <f t="shared" si="3"/>
+        <f>M100+N100+O100+P100</f>
         <v>0</v>
       </c>
       <c r="F100" s="6">
@@ -5450,8 +6042,12 @@
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
-    </row>
-    <row r="101" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <f>D100+E100+F100+G100</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -5462,17 +6058,19 @@
         <v>205</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="2"/>
+        <f>H101+I101+J101+K101+L101</f>
         <v>10</v>
       </c>
       <c r="E101" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>M101+N101+O101+P101</f>
+        <v>5</v>
       </c>
       <c r="F101" s="6">
         <v>10</v>
       </c>
-      <c r="G101" s="6"/>
+      <c r="G101" s="6">
+        <v>45</v>
+      </c>
       <c r="H101" s="7">
         <v>2</v>
       </c>
@@ -5491,9 +6089,15 @@
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-    </row>
-    <row r="102" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P101" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q101">
+        <f>D101+E101+F101+G101</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -5504,11 +6108,11 @@
         <v>207</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="2"/>
+        <f>H102+I102+J102+K102+L102</f>
         <v>6</v>
       </c>
       <c r="E102" s="6">
-        <f t="shared" si="3"/>
+        <f>M102+N102+O102+P102</f>
         <v>0</v>
       </c>
       <c r="F102" s="6"/>
@@ -5528,8 +6132,12 @@
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
-    </row>
-    <row r="103" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <f>D102+E102+F102+G102</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -5540,17 +6148,19 @@
         <v>209</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="2"/>
+        <f>H103+I103+J103+K103+L103</f>
         <v>6</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>M103+N103+O103+P103</f>
+        <v>6</v>
       </c>
       <c r="F103" s="6">
         <v>18</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6">
+        <v>45</v>
+      </c>
       <c r="H103" s="7">
         <v>2</v>
       </c>
@@ -5565,9 +6175,15 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-    </row>
-    <row r="104" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P103" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <f>D103+E103+F103+G103</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -5578,17 +6194,19 @@
         <v>211</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="2"/>
+        <f>H104+I104+J104+K104+L104</f>
         <v>10</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>M104+N104+O104+P104</f>
+        <v>3</v>
       </c>
       <c r="F104" s="6">
         <v>12</v>
       </c>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6">
+        <v>50</v>
+      </c>
       <c r="H104" s="7">
         <v>2</v>
       </c>
@@ -5606,12 +6224,18 @@
       </c>
       <c r="M104" s="7"/>
       <c r="N104" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-    </row>
-    <row r="105" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P104" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <f>D104+E104+F104+G104</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -5622,17 +6246,19 @@
         <v>213</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="2"/>
+        <f>H105+I105+J105+K105+L105</f>
         <v>10</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>M105+N105+O105+P105</f>
+        <v>4</v>
       </c>
       <c r="F105" s="6">
         <v>16</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6">
+        <v>40</v>
+      </c>
       <c r="H105" s="7">
         <v>2</v>
       </c>
@@ -5651,9 +6277,20 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
+      <c r="P105" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <f>D105+E105+F105+G105</f>
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1">
+    <sortState ref="A2:Q105">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/OYM/_DocumentosComunes/PE.xlsx
+++ b/OYM/_DocumentosComunes/PE.xlsx
@@ -1193,8 +1193,8 @@
   <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="A1:Q105"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1254,11 +1254,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f>H2+I2+J2+K2+L2</f>
+        <f t="shared" ref="D2:D33" si="0">H2+I2+J2+K2+L2</f>
         <v>10</v>
       </c>
       <c r="E2" s="6">
-        <f>M2+N2+O2+P2</f>
+        <f t="shared" ref="E2:E33" si="1">M2+N2+O2+P2</f>
         <v>20</v>
       </c>
       <c r="F2" s="6">
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="Q2">
-        <f>D2+E2+F2+G2</f>
+        <f t="shared" ref="Q2:Q33" si="2">D2+E2+F2+G2</f>
         <v>100</v>
       </c>
     </row>
@@ -1310,11 +1310,11 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <f>H3+I3+J3+K3+L3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <f>M3+N3+O3+P3</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F3" s="6">
@@ -1349,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="Q3">
-        <f>D3+E3+F3+G3</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -1364,11 +1364,11 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <f>H4+I4+J4+K4+L4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E4" s="6">
-        <f>M4+N4+O4+P4</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F4" s="6">
@@ -1403,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <f>D4+E4+F4+G4</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -1418,11 +1418,11 @@
         <v>13</v>
       </c>
       <c r="D5" s="6">
-        <f>H5+I5+J5+K5+L5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E5" s="6">
-        <f>M5+N5+O5+P5</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F5" s="6"/>
@@ -1449,7 +1449,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5">
-        <f>D5+E5+F5+G5</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -1464,11 +1464,11 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <f>H6+I6+J6+K6+L6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E6" s="6">
-        <f>M6+N6+O6+P6</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F6" s="6">
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="Q6">
-        <f>D6+E6+F6+G6</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
@@ -1516,11 +1516,11 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <f>H7+I7+J7+K7+L7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E7" s="6">
-        <f>M7+N7+O7+P7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" s="6">
@@ -1545,7 +1545,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7">
-        <f>D7+E7+F7+G7</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -1560,11 +1560,11 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <f>H8+I8+J8+K8+L8</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E8" s="6">
-        <f>M8+N8+O8+P8</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F8" s="6">
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="Q8">
-        <f>D8+E8+F8+G8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -1610,11 +1610,11 @@
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <f>H9+I9+J9+K9+L9</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E9" s="6">
-        <f>M9+N9+O9+P9</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F9" s="6"/>
@@ -1643,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="Q9">
-        <f>D9+E9+F9+G9</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -1658,11 +1658,11 @@
         <v>23</v>
       </c>
       <c r="D10" s="6">
-        <f>H10+I10+J10+K10+L10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10" s="6">
-        <f>M10+N10+O10+P10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="6">
@@ -1691,7 +1691,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10">
-        <f>D10+E10+F10+G10</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
@@ -1706,11 +1706,11 @@
         <v>25</v>
       </c>
       <c r="D11" s="6">
-        <f>H11+I11+J11+K11+L11</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E11" s="6">
-        <f>M11+N11+O11+P11</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F11" s="6">
@@ -1741,7 +1741,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11">
-        <f>D11+E11+F11+G11</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -1756,11 +1756,11 @@
         <v>27</v>
       </c>
       <c r="D12" s="6">
-        <f>H12+I12+J12+K12+L12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E12" s="6">
-        <f>M12+N12+O12+P12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="6"/>
@@ -1781,7 +1781,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12">
-        <f>D12+E12+F12+G12</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -1796,11 +1796,11 @@
         <v>29</v>
       </c>
       <c r="D13" s="6">
-        <f>H13+I13+J13+K13+L13</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E13" s="6">
-        <f>M13+N13+O13+P13</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F13" s="6">
@@ -1833,7 +1833,7 @@
         <v>6</v>
       </c>
       <c r="Q13">
-        <f>D13+E13+F13+G13</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
@@ -1848,11 +1848,11 @@
         <v>31</v>
       </c>
       <c r="D14" s="6">
-        <f>H14+I14+J14+K14+L14</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E14" s="6">
-        <f>M14+N14+O14+P14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="6">
@@ -1879,7 +1879,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14">
-        <f>D14+E14+F14+G14</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -1894,11 +1894,11 @@
         <v>33</v>
       </c>
       <c r="D15" s="6">
-        <f>H15+I15+J15+K15+L15</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E15" s="6">
-        <f>M15+N15+O15+P15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="6">
@@ -1925,7 +1925,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15">
-        <f>D15+E15+F15+G15</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -1940,11 +1940,11 @@
         <v>35</v>
       </c>
       <c r="D16" s="6">
-        <f>H16+I16+J16+K16+L16</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E16" s="6">
-        <f>M16+N16+O16+P16</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F16" s="6">
@@ -1973,7 +1973,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16">
-        <f>D16+E16+F16+G16</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -1988,11 +1988,11 @@
         <v>37</v>
       </c>
       <c r="D17" s="6">
-        <f>H17+I17+J17+K17+L17</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E17" s="6">
-        <f>M17+N17+O17+P17</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F17" s="6">
@@ -2025,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="Q17">
-        <f>D17+E17+F17+G17</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -2040,11 +2040,11 @@
         <v>39</v>
       </c>
       <c r="D18" s="6">
-        <f>H18+I18+J18+K18+L18</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E18" s="6">
-        <f>M18+N18+O18+P18</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F18" s="6">
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="Q18">
-        <f>D18+E18+F18+G18</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
@@ -2090,11 +2090,11 @@
         <v>41</v>
       </c>
       <c r="D19" s="6">
-        <f>H19+I19+J19+K19+L19</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E19" s="6">
-        <f>M19+N19+O19+P19</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F19" s="6">
@@ -2123,7 +2123,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19">
-        <f>D19+E19+F19+G19</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -2138,11 +2138,11 @@
         <v>43</v>
       </c>
       <c r="D20" s="6">
-        <f>H20+I20+J20+K20+L20</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E20" s="6">
-        <f>M20+N20+O20+P20</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F20" s="6">
@@ -2173,7 +2173,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20">
-        <f>D20+E20+F20+G20</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -2188,11 +2188,11 @@
         <v>45</v>
       </c>
       <c r="D21" s="6">
-        <f>H21+I21+J21+K21+L21</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E21" s="6">
-        <f>M21+N21+O21+P21</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F21" s="6">
@@ -2223,7 +2223,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21">
-        <f>D21+E21+F21+G21</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
@@ -2238,11 +2238,11 @@
         <v>47</v>
       </c>
       <c r="D22" s="6">
-        <f>H22+I22+J22+K22+L22</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E22" s="6">
-        <f>M22+N22+O22+P22</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F22" s="6">
@@ -2275,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="Q22">
-        <f>D22+E22+F22+G22</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
@@ -2290,11 +2290,11 @@
         <v>49</v>
       </c>
       <c r="D23" s="6">
-        <f>H23+I23+J23+K23+L23</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E23" s="6">
-        <f>M23+N23+O23+P23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
@@ -2315,7 +2315,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23">
-        <f>D23+E23+F23+G23</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -2330,11 +2330,11 @@
         <v>51</v>
       </c>
       <c r="D24" s="6">
-        <f>H24+I24+J24+K24+L24</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E24" s="6">
-        <f>M24+N24+O24+P24</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F24" s="6">
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <f>D24+E24+F24+G24</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -2384,11 +2384,11 @@
         <v>53</v>
       </c>
       <c r="D25" s="6">
-        <f>H25+I25+J25+K25+L25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E25" s="6">
-        <f>M25+N25+O25+P25</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F25" s="6">
@@ -2417,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="Q25">
-        <f>D25+E25+F25+G25</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -2432,11 +2432,11 @@
         <v>55</v>
       </c>
       <c r="D26" s="6">
-        <f>H26+I26+J26+K26+L26</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E26" s="6">
-        <f>M26+N26+O26+P26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26" s="6"/>
@@ -2457,7 +2457,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26">
-        <f>D26+E26+F26+G26</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -2472,11 +2472,11 @@
         <v>57</v>
       </c>
       <c r="D27" s="6">
-        <f>H27+I27+J27+K27+L27</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E27" s="6">
-        <f>M27+N27+O27+P27</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F27" s="6">
@@ -2505,7 +2505,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27">
-        <f>D27+E27+F27+G27</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -2520,11 +2520,11 @@
         <v>59</v>
       </c>
       <c r="D28" s="6">
-        <f>H28+I28+J28+K28+L28</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E28" s="6">
-        <f>M28+N28+O28+P28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28" s="6">
@@ -2551,7 +2551,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28">
-        <f>D28+E28+F28+G28</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -2566,11 +2566,11 @@
         <v>61</v>
       </c>
       <c r="D29" s="6">
-        <f>H29+I29+J29+K29+L29</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E29" s="6">
-        <f>M29+N29+O29+P29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
@@ -2593,7 +2593,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29">
-        <f>D29+E29+F29+G29</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2608,11 +2608,11 @@
         <v>63</v>
       </c>
       <c r="D30" s="6">
-        <f>H30+I30+J30+K30+L30</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E30" s="6">
-        <f>M30+N30+O30+P30</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F30" s="6">
@@ -2645,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="Q30">
-        <f>D30+E30+F30+G30</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
@@ -2660,11 +2660,11 @@
         <v>65</v>
       </c>
       <c r="D31" s="6">
-        <f>H31+I31+J31+K31+L31</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E31" s="6">
-        <f>M31+N31+O31+P31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" s="6">
@@ -2687,7 +2687,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31">
-        <f>D31+E31+F31+G31</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -2702,11 +2702,11 @@
         <v>67</v>
       </c>
       <c r="D32" s="6">
-        <f>H32+I32+J32+K32+L32</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E32" s="6">
-        <f>M32+N32+O32+P32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
@@ -2727,7 +2727,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32">
-        <f>D32+E32+F32+G32</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -2742,11 +2742,11 @@
         <v>69</v>
       </c>
       <c r="D33" s="6">
-        <f>H33+I33+J33+K33+L33</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E33" s="6">
-        <f>M33+N33+O33+P33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33" s="6"/>
@@ -2767,7 +2767,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33">
-        <f>D33+E33+F33+G33</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -2782,11 +2782,11 @@
         <v>71</v>
       </c>
       <c r="D34" s="6">
-        <f>H34+I34+J34+K34+L34</f>
+        <f t="shared" ref="D34:D65" si="3">H34+I34+J34+K34+L34</f>
         <v>8</v>
       </c>
       <c r="E34" s="6">
-        <f>M34+N34+O34+P34</f>
+        <f t="shared" ref="E34:E65" si="4">M34+N34+O34+P34</f>
         <v>5</v>
       </c>
       <c r="F34" s="6">
@@ -2815,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="Q34">
-        <f>D34+E34+F34+G34</f>
+        <f t="shared" ref="Q34:Q65" si="5">D34+E34+F34+G34</f>
         <v>75</v>
       </c>
     </row>
@@ -2830,11 +2830,11 @@
         <v>73</v>
       </c>
       <c r="D35" s="10">
-        <f>H35+I35+J35+K35+L35</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E35" s="10">
-        <f>M35+N35+O35+P35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F35" s="10">
@@ -2861,7 +2861,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35">
-        <f>D35+E35+F35+G35</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
@@ -2876,11 +2876,11 @@
         <v>75</v>
       </c>
       <c r="D36" s="6">
-        <f>H36+I36+J36+K36+L36</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E36" s="6">
-        <f>M36+N36+O36+P36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F36" s="6">
@@ -2903,7 +2903,7 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36">
-        <f>D36+E36+F36+G36</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
@@ -2918,11 +2918,11 @@
         <v>77</v>
       </c>
       <c r="D37" s="6">
-        <f>H37+I37+J37+K37+L37</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E37" s="6">
-        <f>M37+N37+O37+P37</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F37" s="6">
@@ -2953,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="Q37">
-        <f>D37+E37+F37+G37</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -2968,11 +2968,11 @@
         <v>79</v>
       </c>
       <c r="D38" s="6">
-        <f>H38+I38+J38+K38+L38</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E38" s="6">
-        <f>M38+N38+O38+P38</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="F38" s="6">
@@ -3003,7 +3003,7 @@
         <v>13</v>
       </c>
       <c r="Q38">
-        <f>D38+E38+F38+G38</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3018,11 +3018,11 @@
         <v>81</v>
       </c>
       <c r="D39" s="6">
-        <f>H39+I39+J39+K39+L39</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E39" s="6">
-        <f>M39+N39+O39+P39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F39" s="6">
@@ -3049,7 +3049,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39">
-        <f>D39+E39+F39+G39</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -3064,11 +3064,11 @@
         <v>83</v>
       </c>
       <c r="D40" s="6">
-        <f>H40+I40+J40+K40+L40</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E40" s="6">
-        <f>M40+N40+O40+P40</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F40" s="6"/>
@@ -3089,7 +3089,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40">
-        <f>D40+E40+F40+G40</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3104,17 +3104,19 @@
         <v>85</v>
       </c>
       <c r="D41" s="6">
-        <f>H41+I41+J41+K41+L41</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E41" s="6">
-        <f>M41+N41+O41+P41</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="F41" s="6">
         <v>18</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6">
+        <v>40</v>
+      </c>
       <c r="H41" s="7">
         <v>2</v>
       </c>
@@ -3133,10 +3135,12 @@
         <v>2</v>
       </c>
       <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
+      <c r="P41" s="7">
+        <v>2</v>
+      </c>
       <c r="Q41">
-        <f>D41+E41+F41+G41</f>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3150,11 +3154,11 @@
         <v>87</v>
       </c>
       <c r="D42" s="6">
-        <f>H42+I42+J42+K42+L42</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E42" s="6">
-        <f>M42+N42+O42+P42</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F42" s="6">
@@ -3179,7 +3183,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42">
-        <f>D42+E42+F42+G42</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -3194,11 +3198,11 @@
         <v>89</v>
       </c>
       <c r="D43" s="6">
-        <f>H43+I43+J43+K43+L43</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E43" s="6">
-        <f>M43+N43+O43+P43</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F43" s="6">
@@ -3227,7 +3231,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43">
-        <f>D43+E43+F43+G43</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
@@ -3242,11 +3246,11 @@
         <v>91</v>
       </c>
       <c r="D44" s="6">
-        <f>H44+I44+J44+K44+L44</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E44" s="6">
-        <f>M44+N44+O44+P44</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F44" s="6"/>
@@ -3273,7 +3277,7 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44">
-        <f>D44+E44+F44+G44</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -3288,11 +3292,11 @@
         <v>93</v>
       </c>
       <c r="D45" s="6">
-        <f>H45+I45+J45+K45+L45</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E45" s="6">
-        <f>M45+N45+O45+P45</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F45" s="6"/>
@@ -3317,7 +3321,7 @@
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45">
-        <f>D45+E45+F45+G45</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -3332,11 +3336,11 @@
         <v>95</v>
       </c>
       <c r="D46" s="6">
-        <f>H46+I46+J46+K46+L46</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E46" s="6">
-        <f>M46+N46+O46+P46</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F46" s="6">
@@ -3367,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <f>D46+E46+F46+G46</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
@@ -3382,11 +3386,11 @@
         <v>97</v>
       </c>
       <c r="D47" s="6">
-        <f>H47+I47+J47+K47+L47</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E47" s="6">
-        <f>M47+N47+O47+P47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
@@ -3407,7 +3411,7 @@
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47">
-        <f>D47+E47+F47+G47</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3422,11 +3426,11 @@
         <v>99</v>
       </c>
       <c r="D48" s="6">
-        <f>H48+I48+J48+K48+L48</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E48" s="6">
-        <f>M48+N48+O48+P48</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
@@ -3447,7 +3451,7 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48">
-        <f>D48+E48+F48+G48</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3462,11 +3466,11 @@
         <v>101</v>
       </c>
       <c r="D49" s="6">
-        <f>H49+I49+J49+K49+L49</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E49" s="6">
-        <f>M49+N49+O49+P49</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F49" s="6">
@@ -3495,7 +3499,7 @@
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49">
-        <f>D49+E49+F49+G49</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
     </row>
@@ -3510,11 +3514,11 @@
         <v>103</v>
       </c>
       <c r="D50" s="6">
-        <f>H50+I50+J50+K50+L50</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E50" s="6">
-        <f>M50+N50+O50+P50</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F50" s="6">
@@ -3543,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="Q50">
-        <f>D50+E50+F50+G50</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -3558,11 +3562,11 @@
         <v>105</v>
       </c>
       <c r="D51" s="6">
-        <f>H51+I51+J51+K51+L51</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E51" s="6">
-        <f>M51+N51+O51+P51</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
@@ -3585,7 +3589,7 @@
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51">
-        <f>D51+E51+F51+G51</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3600,11 +3604,11 @@
         <v>107</v>
       </c>
       <c r="D52" s="6">
-        <f>H52+I52+J52+K52+L52</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E52" s="6">
-        <f>M52+N52+O52+P52</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F52" s="6">
@@ -3633,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="Q52">
-        <f>D52+E52+F52+G52</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
@@ -3648,11 +3652,11 @@
         <v>109</v>
       </c>
       <c r="D53" s="6">
-        <f>H53+I53+J53+K53+L53</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <f>M53+N53+O53+P53</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F53" s="6">
@@ -3685,7 +3689,7 @@
         <v>7</v>
       </c>
       <c r="Q53">
-        <f>D53+E53+F53+G53</f>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -3700,11 +3704,11 @@
         <v>111</v>
       </c>
       <c r="D54" s="6">
-        <f>H54+I54+J54+K54+L54</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <f>M54+N54+O54+P54</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F54" s="6">
@@ -3731,7 +3735,7 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54">
-        <f>D54+E54+F54+G54</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -3746,11 +3750,11 @@
         <v>113</v>
       </c>
       <c r="D55" s="6">
-        <f>H55+I55+J55+K55+L55</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <f>M55+N55+O55+P55</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F55" s="6">
@@ -3783,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <f>D55+E55+F55+G55</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -3798,11 +3802,11 @@
         <v>115</v>
       </c>
       <c r="D56" s="6">
-        <f>H56+I56+J56+K56+L56</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E56" s="6">
-        <f>M56+N56+O56+P56</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F56" s="6">
@@ -3833,7 +3837,7 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56">
-        <f>D56+E56+F56+G56</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
@@ -3848,11 +3852,11 @@
         <v>117</v>
       </c>
       <c r="D57" s="6">
-        <f>H57+I57+J57+K57+L57</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E57" s="6">
-        <f>M57+N57+O57+P57</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F57" s="6">
@@ -3887,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="Q57">
-        <f>D57+E57+F57+G57</f>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -3902,11 +3906,11 @@
         <v>119</v>
       </c>
       <c r="D58" s="6">
-        <f>H58+I58+J58+K58+L58</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E58" s="6">
-        <f>M58+N58+O58+P58</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F58" s="6">
@@ -3939,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="Q58">
-        <f>D58+E58+F58+G58</f>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -3954,11 +3958,11 @@
         <v>121</v>
       </c>
       <c r="D59" s="6">
-        <f>H59+I59+J59+K59+L59</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E59" s="6">
-        <f>M59+N59+O59+P59</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F59" s="6">
@@ -3993,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="Q59">
-        <f>D59+E59+F59+G59</f>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -4008,11 +4012,11 @@
         <v>123</v>
       </c>
       <c r="D60" s="6">
-        <f>H60+I60+J60+K60+L60</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E60" s="6">
-        <f>M60+N60+O60+P60</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F60" s="6">
@@ -4045,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <f>D60+E60+F60+G60</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
@@ -4060,11 +4064,11 @@
         <v>125</v>
       </c>
       <c r="D61" s="6">
-        <f>H61+I61+J61+K61+L61</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E61" s="6">
-        <f>M61+N61+O61+P61</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F61" s="6">
@@ -4095,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="Q61">
-        <f>D61+E61+F61+G61</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -4110,11 +4114,11 @@
         <v>127</v>
       </c>
       <c r="D62" s="6">
-        <f>H62+I62+J62+K62+L62</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E62" s="6">
-        <f>M62+N62+O62+P62</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F62" s="6">
@@ -4147,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="Q62">
-        <f>D62+E62+F62+G62</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -4162,11 +4166,11 @@
         <v>129</v>
       </c>
       <c r="D63" s="6">
-        <f>H63+I63+J63+K63+L63</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E63" s="6">
-        <f>M63+N63+O63+P63</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F63" s="6">
@@ -4197,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="Q63">
-        <f>D63+E63+F63+G63</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -4212,11 +4216,11 @@
         <v>131</v>
       </c>
       <c r="D64" s="6">
-        <f>H64+I64+J64+K64+L64</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E64" s="6">
-        <f>M64+N64+O64+P64</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F64" s="6">
@@ -4247,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="Q64">
-        <f>D64+E64+F64+G64</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
@@ -4262,11 +4266,11 @@
         <v>133</v>
       </c>
       <c r="D65" s="6">
-        <f>H65+I65+J65+K65+L65</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E65" s="6">
-        <f>M65+N65+O65+P65</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F65" s="6">
@@ -4301,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="Q65">
-        <f>D65+E65+F65+G65</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -4316,11 +4320,11 @@
         <v>135</v>
       </c>
       <c r="D66" s="6">
-        <f>H66+I66+J66+K66+L66</f>
+        <f t="shared" ref="D66:D97" si="6">H66+I66+J66+K66+L66</f>
         <v>8</v>
       </c>
       <c r="E66" s="6">
-        <f>M66+N66+O66+P66</f>
+        <f t="shared" ref="E66:E97" si="7">M66+N66+O66+P66</f>
         <v>5</v>
       </c>
       <c r="F66" s="6">
@@ -4347,7 +4351,7 @@
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66">
-        <f>D66+E66+F66+G66</f>
+        <f t="shared" ref="Q66:Q97" si="8">D66+E66+F66+G66</f>
         <v>29</v>
       </c>
     </row>
@@ -4362,11 +4366,11 @@
         <v>137</v>
       </c>
       <c r="D67" s="6">
-        <f>H67+I67+J67+K67+L67</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E67" s="6">
-        <f>M67+N67+O67+P67</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="F67" s="6"/>
@@ -4399,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="Q67">
-        <f>D67+E67+F67+G67</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -4414,11 +4418,11 @@
         <v>139</v>
       </c>
       <c r="D68" s="6">
-        <f>H68+I68+J68+K68+L68</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E68" s="6">
-        <f>M68+N68+O68+P68</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F68" s="6">
@@ -4451,7 +4455,7 @@
         <v>5</v>
       </c>
       <c r="Q68">
-        <f>D68+E68+F68+G68</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -4466,11 +4470,11 @@
         <v>141</v>
       </c>
       <c r="D69" s="6">
-        <f>H69+I69+J69+K69+L69</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E69" s="6">
-        <f>M69+N69+O69+P69</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F69" s="6">
@@ -4505,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <f>D69+E69+F69+G69</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -4520,11 +4524,11 @@
         <v>143</v>
       </c>
       <c r="D70" s="6">
-        <f>H70+I70+J70+K70+L70</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E70" s="6">
-        <f>M70+N70+O70+P70</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F70" s="6">
@@ -4557,7 +4561,7 @@
         <v>4</v>
       </c>
       <c r="Q70">
-        <f>D70+E70+F70+G70</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -4572,11 +4576,11 @@
         <v>145</v>
       </c>
       <c r="D71" s="6">
-        <f>H71+I71+J71+K71+L71</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E71" s="6">
-        <f>M71+N71+O71+P71</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="F71" s="6">
@@ -4609,7 +4613,7 @@
         <v>9</v>
       </c>
       <c r="Q71">
-        <f>D71+E71+F71+G71</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -4624,11 +4628,11 @@
         <v>147</v>
       </c>
       <c r="D72" s="6">
-        <f>H72+I72+J72+K72+L72</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E72" s="6">
-        <f>M72+N72+O72+P72</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F72" s="6">
@@ -4659,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="Q72">
-        <f>D72+E72+F72+G72</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -4674,11 +4678,11 @@
         <v>149</v>
       </c>
       <c r="D73" s="6">
-        <f>H73+I73+J73+K73+L73</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E73" s="6">
-        <f>M73+N73+O73+P73</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F73" s="6">
@@ -4711,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="Q73">
-        <f>D73+E73+F73+G73</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -4726,11 +4730,11 @@
         <v>151</v>
       </c>
       <c r="D74" s="6">
-        <f>H74+I74+J74+K74+L74</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E74" s="6">
-        <f>M74+N74+O74+P74</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F74" s="6">
@@ -4761,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <f>D74+E74+F74+G74</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -4776,11 +4780,11 @@
         <v>153</v>
       </c>
       <c r="D75" s="6">
-        <f>H75+I75+J75+K75+L75</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E75" s="6">
-        <f>M75+N75+O75+P75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75" s="6">
@@ -4805,7 +4809,7 @@
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
       <c r="Q75">
-        <f>D75+E75+F75+G75</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
@@ -4820,11 +4824,11 @@
         <v>155</v>
       </c>
       <c r="D76" s="6">
-        <f>H76+I76+J76+K76+L76</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E76" s="6">
-        <f>M76+N76+O76+P76</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="F76" s="6">
@@ -4853,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="Q76">
-        <f>D76+E76+F76+G76</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -4868,11 +4872,11 @@
         <v>157</v>
       </c>
       <c r="D77" s="6">
-        <f>H77+I77+J77+K77+L77</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E77" s="6">
-        <f>M77+N77+O77+P77</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F77" s="6">
@@ -4901,7 +4905,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77">
-        <f>D77+E77+F77+G77</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
@@ -4916,11 +4920,11 @@
         <v>159</v>
       </c>
       <c r="D78" s="6">
-        <f>H78+I78+J78+K78+L78</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E78" s="6">
-        <f>M78+N78+O78+P78</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="F78" s="6">
@@ -4953,7 +4957,7 @@
         <v>9</v>
       </c>
       <c r="Q78">
-        <f>D78+E78+F78+G78</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -4968,11 +4972,11 @@
         <v>161</v>
       </c>
       <c r="D79" s="6">
-        <f>H79+I79+J79+K79+L79</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E79" s="6">
-        <f>M79+N79+O79+P79</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F79" s="6">
@@ -5007,7 +5011,7 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <f>D79+E79+F79+G79</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -5022,11 +5026,11 @@
         <v>163</v>
       </c>
       <c r="D80" s="6">
-        <f>H80+I80+J80+K80+L80</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E80" s="6">
-        <f>M80+N80+O80+P80</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F80" s="6">
@@ -5057,7 +5061,7 @@
         <v>10</v>
       </c>
       <c r="Q80">
-        <f>D80+E80+F80+G80</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -5072,11 +5076,11 @@
         <v>165</v>
       </c>
       <c r="D81" s="6">
-        <f>H81+I81+J81+K81+L81</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E81" s="6">
-        <f>M81+N81+O81+P81</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F81" s="6">
@@ -5109,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="Q81">
-        <f>D81+E81+F81+G81</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -5124,11 +5128,11 @@
         <v>167</v>
       </c>
       <c r="D82" s="6">
-        <f>H82+I82+J82+K82+L82</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E82" s="6">
-        <f>M82+N82+O82+P82</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F82" s="6">
@@ -5153,7 +5157,7 @@
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
       <c r="Q82">
-        <f>D82+E82+F82+G82</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -5168,11 +5172,11 @@
         <v>169</v>
       </c>
       <c r="D83" s="6">
-        <f>H83+I83+J83+K83+L83</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E83" s="6">
-        <f>M83+N83+O83+P83</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="F83" s="6">
@@ -5205,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="Q83">
-        <f>D83+E83+F83+G83</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -5220,11 +5224,11 @@
         <v>171</v>
       </c>
       <c r="D84" s="6">
-        <f>H84+I84+J84+K84+L84</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E84" s="6">
-        <f>M84+N84+O84+P84</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F84" s="6"/>
@@ -5247,7 +5251,7 @@
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
       <c r="Q84">
-        <f>D84+E84+F84+G84</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -5262,11 +5266,11 @@
         <v>173</v>
       </c>
       <c r="D85" s="6">
-        <f>H85+I85+J85+K85+L85</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E85" s="6">
-        <f>M85+N85+O85+P85</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F85" s="6">
@@ -5299,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="Q85">
-        <f>D85+E85+F85+G85</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -5314,11 +5318,11 @@
         <v>175</v>
       </c>
       <c r="D86" s="6">
-        <f>H86+I86+J86+K86+L86</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E86" s="6">
-        <f>M86+N86+O86+P86</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F86" s="6">
@@ -5351,7 +5355,7 @@
         <v>7</v>
       </c>
       <c r="Q86">
-        <f>D86+E86+F86+G86</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -5366,11 +5370,11 @@
         <v>177</v>
       </c>
       <c r="D87" s="6">
-        <f>H87+I87+J87+K87+L87</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E87" s="6">
-        <f>M87+N87+O87+P87</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F87" s="6">
@@ -5403,7 +5407,7 @@
         <v>5</v>
       </c>
       <c r="Q87">
-        <f>D87+E87+F87+G87</f>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
     </row>
@@ -5418,11 +5422,11 @@
         <v>179</v>
       </c>
       <c r="D88" s="6">
-        <f>H88+I88+J88+K88+L88</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E88" s="6">
-        <f>M88+N88+O88+P88</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F88" s="6">
@@ -5453,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="Q88">
-        <f>D88+E88+F88+G88</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -5468,11 +5472,11 @@
         <v>181</v>
       </c>
       <c r="D89" s="6">
-        <f>H89+I89+J89+K89+L89</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E89" s="6">
-        <f>M89+N89+O89+P89</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F89" s="6">
@@ -5499,7 +5503,7 @@
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89">
-        <f>D89+E89+F89+G89</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
@@ -5514,11 +5518,11 @@
         <v>183</v>
       </c>
       <c r="D90" s="6">
-        <f>H90+I90+J90+K90+L90</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E90" s="6">
-        <f>M90+N90+O90+P90</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F90" s="6">
@@ -5551,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="Q90">
-        <f>D90+E90+F90+G90</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -5566,11 +5570,11 @@
         <v>185</v>
       </c>
       <c r="D91" s="6">
-        <f>H91+I91+J91+K91+L91</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E91" s="6">
-        <f>M91+N91+O91+P91</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F91" s="6">
@@ -5595,7 +5599,7 @@
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
       <c r="Q91">
-        <f>D91+E91+F91+G91</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -5610,11 +5614,11 @@
         <v>187</v>
       </c>
       <c r="D92" s="6">
-        <f>H92+I92+J92+K92+L92</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E92" s="6">
-        <f>M92+N92+O92+P92</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F92" s="6">
@@ -5647,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="Q92">
-        <f>D92+E92+F92+G92</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -5662,11 +5666,11 @@
         <v>189</v>
       </c>
       <c r="D93" s="6">
-        <f>H93+I93+J93+K93+L93</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E93" s="6">
-        <f>M93+N93+O93+P93</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F93" s="6">
@@ -5693,7 +5697,7 @@
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93">
-        <f>D93+E93+F93+G93</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -5708,11 +5712,11 @@
         <v>191</v>
       </c>
       <c r="D94" s="6">
-        <f>H94+I94+J94+K94+L94</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E94" s="6">
-        <f>M94+N94+O94+P94</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F94" s="6"/>
@@ -5739,7 +5743,7 @@
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
       <c r="Q94">
-        <f>D94+E94+F94+G94</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -5754,11 +5758,11 @@
         <v>193</v>
       </c>
       <c r="D95" s="6">
-        <f>H95+I95+J95+K95+L95</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E95" s="6">
-        <f>M95+N95+O95+P95</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="F95" s="6">
@@ -5791,7 +5795,7 @@
         <v>9</v>
       </c>
       <c r="Q95">
-        <f>D95+E95+F95+G95</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -5806,11 +5810,11 @@
         <v>195</v>
       </c>
       <c r="D96" s="6">
-        <f>H96+I96+J96+K96+L96</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E96" s="6">
-        <f>M96+N96+O96+P96</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F96" s="6">
@@ -5845,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <f>D96+E96+F96+G96</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -5860,11 +5864,11 @@
         <v>197</v>
       </c>
       <c r="D97" s="6">
-        <f>H97+I97+J97+K97+L97</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E97" s="6">
-        <f>M97+N97+O97+P97</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F97" s="6"/>
@@ -5895,7 +5899,7 @@
         <v>5</v>
       </c>
       <c r="Q97">
-        <f>D97+E97+F97+G97</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -5910,11 +5914,11 @@
         <v>199</v>
       </c>
       <c r="D98" s="6">
-        <f>H98+I98+J98+K98+L98</f>
+        <f t="shared" ref="D98:D105" si="9">H98+I98+J98+K98+L98</f>
         <v>8</v>
       </c>
       <c r="E98" s="6">
-        <f>M98+N98+O98+P98</f>
+        <f t="shared" ref="E98:E105" si="10">M98+N98+O98+P98</f>
         <v>14</v>
       </c>
       <c r="F98" s="6">
@@ -5945,7 +5949,7 @@
         <v>9</v>
       </c>
       <c r="Q98">
-        <f>D98+E98+F98+G98</f>
+        <f t="shared" ref="Q98:Q105" si="11">D98+E98+F98+G98</f>
         <v>90</v>
       </c>
     </row>
@@ -5960,11 +5964,11 @@
         <v>201</v>
       </c>
       <c r="D99" s="6">
-        <f>H99+I99+J99+K99+L99</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E99" s="6">
-        <f>M99+N99+O99+P99</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="F99" s="6">
@@ -5999,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="Q99">
-        <f>D99+E99+F99+G99</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
@@ -6014,11 +6018,11 @@
         <v>203</v>
       </c>
       <c r="D100" s="6">
-        <f>H100+I100+J100+K100+L100</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E100" s="6">
-        <f>M100+N100+O100+P100</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F100" s="6">
@@ -6043,7 +6047,7 @@
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
       <c r="Q100">
-        <f>D100+E100+F100+G100</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -6058,11 +6062,11 @@
         <v>205</v>
       </c>
       <c r="D101" s="6">
-        <f>H101+I101+J101+K101+L101</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E101" s="6">
-        <f>M101+N101+O101+P101</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F101" s="6">
@@ -6093,7 +6097,7 @@
         <v>5</v>
       </c>
       <c r="Q101">
-        <f>D101+E101+F101+G101</f>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -6108,11 +6112,11 @@
         <v>207</v>
       </c>
       <c r="D102" s="6">
-        <f>H102+I102+J102+K102+L102</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E102" s="6">
-        <f>M102+N102+O102+P102</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F102" s="6"/>
@@ -6133,7 +6137,7 @@
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
       <c r="Q102">
-        <f>D102+E102+F102+G102</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -6148,11 +6152,11 @@
         <v>209</v>
       </c>
       <c r="D103" s="6">
-        <f>H103+I103+J103+K103+L103</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E103" s="6">
-        <f>M103+N103+O103+P103</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F103" s="6">
@@ -6179,7 +6183,7 @@
         <v>6</v>
       </c>
       <c r="Q103">
-        <f>D103+E103+F103+G103</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
@@ -6194,11 +6198,11 @@
         <v>211</v>
       </c>
       <c r="D104" s="6">
-        <f>H104+I104+J104+K104+L104</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E104" s="6">
-        <f>M104+N104+O104+P104</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="F104" s="6">
@@ -6231,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <f>D104+E104+F104+G104</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
@@ -6246,11 +6250,11 @@
         <v>213</v>
       </c>
       <c r="D105" s="6">
-        <f>H105+I105+J105+K105+L105</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E105" s="6">
-        <f>M105+N105+O105+P105</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="F105" s="6">
@@ -6281,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="Q105">
-        <f>D105+E105+F105+G105</f>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>

--- a/OYM/_DocumentosComunes/PE.xlsx
+++ b/OYM/_DocumentosComunes/PE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B37FD0-AEB3-414E-B2F6-D9A3DFA23711}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -673,7 +674,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -699,7 +700,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,12 +711,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -757,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -776,18 +771,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,18 +1172,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1206,7 +1192,7 @@
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" customWidth="1"/>
     <col min="8" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" customWidth="1"/>
     <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1239,7 +1225,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="8" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1254,11 +1240,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D33" si="0">H2+I2+J2+K2+L2</f>
+        <f>H2+I2+J2+K2+L2</f>
         <v>10</v>
       </c>
       <c r="E2" s="6">
-        <f t="shared" ref="E2:E33" si="1">M2+N2+O2+P2</f>
+        <f>M2+N2+O2+P2</f>
         <v>20</v>
       </c>
       <c r="F2" s="6">
@@ -1295,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="2">D2+E2+F2+G2</f>
+        <f>D2+E2+F2+G2</f>
         <v>100</v>
       </c>
     </row>
@@ -1310,15 +1296,14 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" si="0"/>
+        <f>H3+I3+J3+K3+L3</f>
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6">
         <v>35</v>
@@ -1349,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="2"/>
+        <f>D3+E3+F3+G3</f>
         <v>70</v>
       </c>
     </row>
@@ -1364,11 +1349,11 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f>H4+I4+J4+K4+L4</f>
         <v>10</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="1"/>
+        <f>M4+N4+O4+P4</f>
         <v>10</v>
       </c>
       <c r="F4" s="6">
@@ -1403,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f>D4+E4+F4+G4</f>
         <v>70</v>
       </c>
     </row>
@@ -1417,14 +1402,8 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7">
@@ -1449,8 +1428,8 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>D5+E5+F5+G5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1464,11 +1443,11 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f>H6+I6+J6+K6+L6</f>
         <v>10</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f>M6+N6+O6+P6</f>
         <v>10</v>
       </c>
       <c r="F6" s="6">
@@ -1501,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f>D6+E6+F6+G6</f>
         <v>75</v>
       </c>
     </row>
@@ -1516,18 +1495,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1545,8 +1522,8 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>D7+E7+F7+G7</f>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1560,15 +1537,14 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f>H8+I8+J8+K8+L8</f>
         <v>10</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="6">
         <v>35</v>
@@ -1595,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f>D8+E8+F8+G8</f>
         <v>70</v>
       </c>
     </row>
@@ -1610,16 +1586,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
       <c r="G9" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1643,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f>D9+E9+F9+G9</f>
         <v>70</v>
       </c>
     </row>
@@ -1658,18 +1634,17 @@
         <v>23</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f>H10+I10+J10+K10+L10</f>
         <v>10</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1691,8 +1666,8 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f>D10+E10+F10+G10</f>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,17 +1680,9 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="6">
-        <v>18</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7">
         <v>2</v>
@@ -1741,8 +1708,8 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f>D11+E11+F11+G11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1755,14 +1722,8 @@
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7">
@@ -1781,8 +1742,8 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>D12+E12+F12+G12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1796,11 +1757,11 @@
         <v>29</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f>H13+I13+J13+K13+L13</f>
         <v>10</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f>M13+N13+O13+P13</f>
         <v>11</v>
       </c>
       <c r="F13" s="6">
@@ -1833,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f>D13+E13+F13+G13</f>
         <v>75</v>
       </c>
     </row>
@@ -1847,17 +1808,9 @@
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>12</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7">
         <v>2</v>
@@ -1879,8 +1832,8 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>D14+E14+F14+G14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1893,17 +1846,9 @@
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>14</v>
-      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7">
         <v>2</v>
@@ -1925,8 +1870,8 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>D15+E15+F15+G15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1939,17 +1884,9 @@
       <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>12</v>
-      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7">
         <v>2</v>
@@ -1973,8 +1910,8 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>D16+E16+F16+G16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1988,11 +1925,11 @@
         <v>37</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f>H17+I17+J17+K17+L17</f>
         <v>10</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="1"/>
+        <f>M17+N17+O17+P17</f>
         <v>10</v>
       </c>
       <c r="F17" s="6">
@@ -2025,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f>D17+E17+F17+G17</f>
         <v>70</v>
       </c>
     </row>
@@ -2040,15 +1977,13 @@
         <v>39</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" s="6">
         <v>40</v>
@@ -2075,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f>D18+E18+F18+G18</f>
         <v>75</v>
       </c>
     </row>
@@ -2089,17 +2024,9 @@
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F19" s="6">
-        <v>8</v>
-      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7">
         <v>2</v>
@@ -2123,8 +2050,8 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>D19+E19+F19+G19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2137,17 +2064,9 @@
       <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F20" s="6">
-        <v>12</v>
-      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7">
         <v>2</v>
@@ -2173,8 +2092,8 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>D20+E20+F20+G20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,18 +2107,17 @@
         <v>45</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f>H21+I21+J21+K21+L21</f>
         <v>10</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F21" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G21" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2223,8 +2141,8 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f>D21+E21+F21+G21</f>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,11 +2156,11 @@
         <v>47</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f>H22+I22+J22+K22+L22</f>
         <v>10</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="1"/>
+        <f>M22+N22+O22+P22</f>
         <v>9</v>
       </c>
       <c r="F22" s="6">
@@ -2275,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f>D22+E22+F22+G22</f>
         <v>75</v>
       </c>
     </row>
@@ -2289,14 +2207,8 @@
       <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7">
@@ -2315,8 +2227,8 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>D23+E23+F23+G23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2330,11 +2242,11 @@
         <v>51</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f>H24+I24+J24+K24+L24</f>
         <v>10</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
+        <f>M24+N24+O24+P24</f>
         <v>11</v>
       </c>
       <c r="F24" s="6">
@@ -2369,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f>D24+E24+F24+G24</f>
         <v>80</v>
       </c>
     </row>
@@ -2384,11 +2296,11 @@
         <v>53</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f>H25+I25+J25+K25+L25</f>
         <v>8</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
+        <f>M25+N25+O25+P25</f>
         <v>10</v>
       </c>
       <c r="F25" s="6">
@@ -2417,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f>D25+E25+F25+G25</f>
         <v>70</v>
       </c>
     </row>
@@ -2431,14 +2343,8 @@
       <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7">
@@ -2457,8 +2363,8 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>D26+E26+F26+G26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,17 +2377,9 @@
       <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F27" s="6">
-        <v>12</v>
-      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7">
         <v>2</v>
@@ -2505,8 +2403,8 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f>D27+E27+F27+G27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2519,17 +2417,9 @@
       <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>14</v>
-      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7">
         <v>2</v>
@@ -2551,8 +2441,8 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>D28+E28+F28+G28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,14 +2455,8 @@
       <c r="C29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7">
@@ -2593,8 +2477,8 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>D29+E29+F29+G29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2608,15 +2492,14 @@
         <v>63</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="0"/>
+        <f>H30+I30+J30+K30+L30</f>
         <v>10</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="6">
         <v>45</v>
@@ -2645,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f>D30+E30+F30+G30</f>
         <v>75</v>
       </c>
     </row>
@@ -2659,17 +2542,9 @@
       <c r="C31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>12</v>
-      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7">
         <v>2</v>
@@ -2687,8 +2562,8 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>D31+E31+F31+G31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2701,14 +2576,8 @@
       <c r="C32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7">
@@ -2727,8 +2596,8 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>D32+E32+F32+G32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2741,14 +2610,8 @@
       <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7">
@@ -2767,8 +2630,8 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>D33+E33+F33+G33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2782,11 +2645,11 @@
         <v>71</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" ref="D34:D65" si="3">H34+I34+J34+K34+L34</f>
+        <f>H34+I34+J34+K34+L34</f>
         <v>8</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:E65" si="4">M34+N34+O34+P34</f>
+        <f>M34+N34+O34+P34</f>
         <v>5</v>
       </c>
       <c r="F34" s="6">
@@ -2815,54 +2678,55 @@
         <v>5</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="5">D34+E34+F34+G34</f>
+        <f>D34+E34+F34+G34</f>
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="12" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+    <row r="35" spans="1:17" s="10" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="10">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E35" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>12</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11">
-        <v>2</v>
-      </c>
-      <c r="I35" s="11">
-        <v>2</v>
-      </c>
-      <c r="J35" s="11">
-        <v>2</v>
-      </c>
-      <c r="K35" s="11">
-        <v>2</v>
-      </c>
-      <c r="L35" s="11">
-        <v>2</v>
-      </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35">
-        <f t="shared" si="5"/>
-        <v>22</v>
+      <c r="D35" s="6">
+        <f>H35+I35+J35+K35+L35</f>
+        <v>10</v>
+      </c>
+      <c r="E35" s="6">
+        <v>10</v>
+      </c>
+      <c r="F35" s="6">
+        <v>10</v>
+      </c>
+      <c r="G35" s="6">
+        <v>40</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2</v>
+      </c>
+      <c r="J35" s="9">
+        <v>2</v>
+      </c>
+      <c r="K35" s="9">
+        <v>2</v>
+      </c>
+      <c r="L35" s="9">
+        <v>2</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10">
+        <f>D35+E35+F35+G35</f>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,17 +2739,9 @@
       <c r="C36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>16</v>
-      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7">
         <v>2</v>
@@ -2903,8 +2759,8 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>D36+E36+F36+G36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2918,11 +2774,11 @@
         <v>77</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="3"/>
+        <f>H37+I37+J37+K37+L37</f>
         <v>10</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="4"/>
+        <f>M37+N37+O37+P37</f>
         <v>3</v>
       </c>
       <c r="F37" s="6">
@@ -2953,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="5"/>
+        <f>D37+E37+F37+G37</f>
         <v>70</v>
       </c>
     </row>
@@ -2968,11 +2824,11 @@
         <v>79</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="3"/>
+        <f>H38+I38+J38+K38+L38</f>
         <v>8</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="4"/>
+        <f>M38+N38+O38+P38</f>
         <v>18</v>
       </c>
       <c r="F38" s="6">
@@ -3003,7 +2859,7 @@
         <v>13</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="5"/>
+        <f>D38+E38+F38+G38</f>
         <v>70</v>
       </c>
     </row>
@@ -3018,17 +2874,18 @@
         <v>81</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="3"/>
+        <f>H39+I39+J39+K39+L39</f>
         <v>10</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F39" s="6">
         <v>14</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6">
+        <v>36</v>
+      </c>
       <c r="H39" s="7">
         <v>2</v>
       </c>
@@ -3049,8 +2906,8 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f>D39+E39+F39+G39</f>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,14 +2920,8 @@
       <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="7">
@@ -3089,8 +2940,8 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>D40+E40+F40+G40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3104,15 +2955,14 @@
         <v>85</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="3"/>
+        <f>H41+I41+J41+K41+L41</f>
         <v>8</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F41" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G41" s="6">
         <v>40</v>
@@ -3139,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="5"/>
+        <f>D41+E41+F41+G41</f>
         <v>70</v>
       </c>
     </row>
@@ -3153,17 +3003,9 @@
       <c r="C42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F42" s="6">
-        <v>8</v>
-      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="7">
         <v>2</v>
@@ -3183,8 +3025,8 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f>D42+E42+F42+G42</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3198,17 +3040,18 @@
         <v>89</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="3"/>
+        <f>H43+I43+J43+K43+L43</f>
         <v>8</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F43" s="6">
         <v>12</v>
       </c>
-      <c r="G43" s="6"/>
+      <c r="G43" s="6">
+        <v>40</v>
+      </c>
       <c r="H43" s="7">
         <v>2</v>
       </c>
@@ -3231,8 +3074,8 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f>D43+E43+F43+G43</f>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3245,14 +3088,8 @@
       <c r="C44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E44" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="7">
@@ -3277,8 +3114,8 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>D44+E44+F44+G44</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3291,14 +3128,8 @@
       <c r="C45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E45" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7">
@@ -3321,8 +3152,8 @@
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>D45+E45+F45+G45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3336,18 +3167,17 @@
         <v>95</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="3"/>
+        <f>H46+I46+J46+K46+L46</f>
         <v>10</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F46" s="6">
         <v>14</v>
       </c>
       <c r="G46" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3371,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="5"/>
+        <f>D46+E46+F46+G46</f>
         <v>75</v>
       </c>
     </row>
@@ -3385,14 +3215,8 @@
       <c r="C47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E47" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="7">
@@ -3411,8 +3235,8 @@
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>D47+E47+F47+G47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3425,14 +3249,8 @@
       <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E48" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7">
@@ -3451,8 +3269,8 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>D48+E48+F48+G48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3465,17 +3283,9 @@
       <c r="C49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E49" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F49" s="6">
-        <v>14</v>
-      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="7">
         <v>2</v>
@@ -3499,8 +3309,8 @@
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f>D49+E49+F49+G49</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3514,15 +3324,13 @@
         <v>103</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="6">
         <v>50</v>
@@ -3547,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="5"/>
+        <f>D50+E50+F50+G50</f>
         <v>80</v>
       </c>
     </row>
@@ -3561,14 +3369,8 @@
       <c r="C51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E51" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="7">
@@ -3589,8 +3391,8 @@
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>D51+E51+F51+G51</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3604,18 +3406,17 @@
         <v>107</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="3"/>
+        <f>H52+I52+J52+K52+L52</f>
         <v>8</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F52" s="6">
         <v>14</v>
       </c>
       <c r="G52" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -3637,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="5"/>
+        <f>D52+E52+F52+G52</f>
         <v>75</v>
       </c>
     </row>
@@ -3652,11 +3453,11 @@
         <v>109</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="3"/>
+        <f>H53+I53+J53+K53+L53</f>
         <v>10</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="4"/>
+        <f>M53+N53+O53+P53</f>
         <v>12</v>
       </c>
       <c r="F53" s="6">
@@ -3689,7 +3490,7 @@
         <v>7</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="5"/>
+        <f>D53+E53+F53+G53</f>
         <v>90</v>
       </c>
     </row>
@@ -3703,17 +3504,9 @@
       <c r="C54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E54" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="6">
-        <v>2</v>
-      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="7">
         <v>2</v>
@@ -3735,8 +3528,8 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>D54+E54+F54+G54</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3750,11 +3543,11 @@
         <v>113</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="3"/>
+        <f>H55+I55+J55+K55+L55</f>
         <v>10</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="4"/>
+        <f>M55+N55+O55+P55</f>
         <v>6</v>
       </c>
       <c r="F55" s="6">
@@ -3787,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="5"/>
+        <f>D55+E55+F55+G55</f>
         <v>80</v>
       </c>
     </row>
@@ -3801,17 +3594,9 @@
       <c r="C56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E56" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F56" s="6">
-        <v>16</v>
-      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="7">
         <v>2</v>
@@ -3837,8 +3622,8 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f>D56+E56+F56+G56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3852,11 +3637,11 @@
         <v>117</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="3"/>
+        <f>H57+I57+J57+K57+L57</f>
         <v>10</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" si="4"/>
+        <f>M57+N57+O57+P57</f>
         <v>16</v>
       </c>
       <c r="F57" s="6">
@@ -3891,7 +3676,7 @@
         <v>6</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="5"/>
+        <f>D57+E57+F57+G57</f>
         <v>90</v>
       </c>
     </row>
@@ -3906,11 +3691,11 @@
         <v>119</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="3"/>
+        <f>H58+I58+J58+K58+L58</f>
         <v>10</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="4"/>
+        <f>M58+N58+O58+P58</f>
         <v>14</v>
       </c>
       <c r="F58" s="6">
@@ -3943,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="5"/>
+        <f>D58+E58+F58+G58</f>
         <v>90</v>
       </c>
     </row>
@@ -3958,11 +3743,11 @@
         <v>121</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="3"/>
+        <f>H59+I59+J59+K59+L59</f>
         <v>10</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="4"/>
+        <f>M59+N59+O59+P59</f>
         <v>14</v>
       </c>
       <c r="F59" s="6">
@@ -3997,7 +3782,7 @@
         <v>8</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="5"/>
+        <f>D59+E59+F59+G59</f>
         <v>90</v>
       </c>
     </row>
@@ -4012,15 +3797,14 @@
         <v>123</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="3"/>
+        <f>H60+I60+J60+K60+L60</f>
         <v>10</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F60" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G60" s="6">
         <v>45</v>
@@ -4049,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="5"/>
+        <f>D60+E60+F60+G60</f>
         <v>75</v>
       </c>
     </row>
@@ -4064,15 +3848,14 @@
         <v>125</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="3"/>
+        <f>H61+I61+J61+K61+L61</f>
         <v>10</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F61" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="6">
         <v>40</v>
@@ -4099,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="5"/>
+        <f>D61+E61+F61+G61</f>
         <v>70</v>
       </c>
     </row>
@@ -4114,15 +3897,14 @@
         <v>127</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="3"/>
+        <f>H62+I62+J62+K62+L62</f>
         <v>10</v>
       </c>
       <c r="E62" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F62" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" s="6">
         <v>50</v>
@@ -4151,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="5"/>
+        <f>D62+E62+F62+G62</f>
         <v>80</v>
       </c>
     </row>
@@ -4166,15 +3948,14 @@
         <v>129</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="3"/>
+        <f>H63+I63+J63+K63+L63</f>
         <v>10</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F63" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G63" s="6">
         <v>50</v>
@@ -4201,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="5"/>
+        <f>D63+E63+F63+G63</f>
         <v>80</v>
       </c>
     </row>
@@ -4216,18 +3997,17 @@
         <v>131</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="3"/>
+        <f>H64+I64+J64+K64+L64</f>
         <v>10</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F64" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G64" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H64" s="7">
         <v>2</v>
@@ -4251,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="5"/>
+        <f>D64+E64+F64+G64</f>
         <v>75</v>
       </c>
     </row>
@@ -4266,11 +4046,11 @@
         <v>133</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="3"/>
+        <f>H65+I65+J65+K65+L65</f>
         <v>10</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="4"/>
+        <f>M65+N65+O65+P65</f>
         <v>10</v>
       </c>
       <c r="F65" s="6">
@@ -4305,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="5"/>
+        <f>D65+E65+F65+G65</f>
         <v>80</v>
       </c>
     </row>
@@ -4319,17 +4099,9 @@
       <c r="C66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="6">
-        <f t="shared" ref="D66:D97" si="6">H66+I66+J66+K66+L66</f>
-        <v>8</v>
-      </c>
-      <c r="E66" s="6">
-        <f t="shared" ref="E66:E97" si="7">M66+N66+O66+P66</f>
-        <v>5</v>
-      </c>
-      <c r="F66" s="6">
-        <v>16</v>
-      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="7">
         <v>2</v>
@@ -4351,8 +4123,8 @@
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" si="8">D66+E66+F66+G66</f>
-        <v>29</v>
+        <f>D66+E66+F66+G66</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,16 +4138,17 @@
         <v>137</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="6"/>
+        <f>H67+I67+J67+K67+L67</f>
         <v>10</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="F67" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F67" s="6">
+        <v>10</v>
+      </c>
       <c r="G67" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H67" s="7">
         <v>2</v>
@@ -4403,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="8"/>
+        <f>D67+E67+F67+G67</f>
         <v>70</v>
       </c>
     </row>
@@ -4418,15 +4191,14 @@
         <v>139</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="6"/>
+        <f>H68+I68+J68+K68+L68</f>
         <v>10</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="6">
         <v>45</v>
@@ -4455,7 +4227,7 @@
         <v>5</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="8"/>
+        <f>D68+E68+F68+G68</f>
         <v>80</v>
       </c>
     </row>
@@ -4470,15 +4242,14 @@
         <v>141</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="6"/>
+        <f>H69+I69+J69+K69+L69</f>
         <v>10</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F69" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G69" s="6">
         <v>45</v>
@@ -4509,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="8"/>
+        <f>D69+E69+F69+G69</f>
         <v>80</v>
       </c>
     </row>
@@ -4524,15 +4295,14 @@
         <v>143</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="6"/>
+        <f>H70+I70+J70+K70+L70</f>
         <v>10</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F70" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="6">
         <v>45</v>
@@ -4561,7 +4331,7 @@
         <v>4</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="8"/>
+        <f>D70+E70+F70+G70</f>
         <v>75</v>
       </c>
     </row>
@@ -4576,11 +4346,11 @@
         <v>145</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="6"/>
+        <f>H71+I71+J71+K71+L71</f>
         <v>10</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="7"/>
+        <f>M71+N71+O71+P71</f>
         <v>14</v>
       </c>
       <c r="F71" s="6">
@@ -4613,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="8"/>
+        <f>D71+E71+F71+G71</f>
         <v>90</v>
       </c>
     </row>
@@ -4628,15 +4398,14 @@
         <v>147</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="6"/>
+        <f>H72+I72+J72+K72+L72</f>
         <v>10</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F72" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="6">
         <v>40</v>
@@ -4663,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="8"/>
+        <f>D72+E72+F72+G72</f>
         <v>70</v>
       </c>
     </row>
@@ -4678,11 +4447,11 @@
         <v>149</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="6"/>
+        <f>H73+I73+J73+K73+L73</f>
         <v>10</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="7"/>
+        <f>M73+N73+O73+P73</f>
         <v>10</v>
       </c>
       <c r="F73" s="6">
@@ -4715,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="8"/>
+        <f>D73+E73+F73+G73</f>
         <v>70</v>
       </c>
     </row>
@@ -4730,15 +4499,13 @@
         <v>151</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F74" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G74" s="6">
         <v>45</v>
@@ -4765,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="8"/>
+        <f>D74+E74+F74+G74</f>
         <v>75</v>
       </c>
     </row>
@@ -4779,17 +4546,9 @@
       <c r="C75" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E75" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <v>16</v>
-      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="7">
         <v>2</v>
@@ -4809,8 +4568,8 @@
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
       <c r="Q75">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <f>D75+E75+F75+G75</f>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4824,12 +4583,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F76" s="6">
         <v>10</v>
@@ -4857,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="8"/>
+        <f>D76+E76+F76+G76</f>
         <v>70</v>
       </c>
     </row>
@@ -4871,17 +4628,9 @@
       <c r="C77" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E77" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="F77" s="6">
-        <v>16</v>
-      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="7">
         <v>2</v>
@@ -4905,8 +4654,8 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f>D77+E77+F77+G77</f>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4920,11 +4669,11 @@
         <v>159</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="6"/>
+        <f>H78+I78+J78+K78+L78</f>
         <v>8</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="7"/>
+        <f>M78+N78+O78+P78</f>
         <v>16</v>
       </c>
       <c r="F78" s="6">
@@ -4957,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="8"/>
+        <f>D78+E78+F78+G78</f>
         <v>90</v>
       </c>
     </row>
@@ -4972,11 +4721,11 @@
         <v>161</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="6"/>
+        <f>H79+I79+J79+K79+L79</f>
         <v>10</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="7"/>
+        <f>M79+N79+O79+P79</f>
         <v>11</v>
       </c>
       <c r="F79" s="6">
@@ -5011,7 +4760,7 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="8"/>
+        <f>D79+E79+F79+G79</f>
         <v>75</v>
       </c>
     </row>
@@ -5026,11 +4775,11 @@
         <v>163</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="6"/>
+        <f>H80+I80+J80+K80+L80</f>
         <v>10</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="7"/>
+        <f>M80+N80+O80+P80</f>
         <v>10</v>
       </c>
       <c r="F80" s="6">
@@ -5061,7 +4810,7 @@
         <v>10</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="8"/>
+        <f>D80+E80+F80+G80</f>
         <v>70</v>
       </c>
     </row>
@@ -5076,15 +4825,14 @@
         <v>165</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="6"/>
+        <f>H81+I81+J81+K81+L81</f>
         <v>10</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F81" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="6">
         <v>50</v>
@@ -5113,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="8"/>
+        <f>D81+E81+F81+G81</f>
         <v>80</v>
       </c>
     </row>
@@ -5128,17 +4876,18 @@
         <v>167</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="6"/>
+        <f>H82+I82+J82+K82+L82</f>
         <v>8</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F82" s="6">
         <v>12</v>
       </c>
-      <c r="G82" s="6"/>
+      <c r="G82" s="6">
+        <v>40</v>
+      </c>
       <c r="H82" s="7">
         <v>2</v>
       </c>
@@ -5157,8 +4906,8 @@
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
       <c r="Q82">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f>D82+E82+F82+G82</f>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5172,11 +4921,11 @@
         <v>169</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="6"/>
+        <f>H83+I83+J83+K83+L83</f>
         <v>10</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="7"/>
+        <f>M83+N83+O83+P83</f>
         <v>14</v>
       </c>
       <c r="F83" s="6">
@@ -5209,7 +4958,7 @@
         <v>9</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="8"/>
+        <f>D83+E83+F83+G83</f>
         <v>90</v>
       </c>
     </row>
@@ -5223,14 +4972,8 @@
       <c r="C84" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E84" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="7">
@@ -5251,8 +4994,8 @@
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
       <c r="Q84">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>D84+E84+F84+G84</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5266,15 +5009,14 @@
         <v>173</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="6"/>
+        <f>H85+I85+J85+K85+L85</f>
         <v>8</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F85" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" s="6">
         <v>45</v>
@@ -5303,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="8"/>
+        <f>D85+E85+F85+G85</f>
         <v>80</v>
       </c>
     </row>
@@ -5318,11 +5060,11 @@
         <v>175</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="6"/>
+        <f>H86+I86+J86+K86+L86</f>
         <v>10</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="7"/>
+        <f>M86+N86+O86+P86</f>
         <v>12</v>
       </c>
       <c r="F86" s="6">
@@ -5355,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="8"/>
+        <f>D86+E86+F86+G86</f>
         <v>70</v>
       </c>
     </row>
@@ -5370,15 +5112,14 @@
         <v>177</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="6"/>
+        <f>H87+I87+J87+K87+L87</f>
         <v>10</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F87" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G87" s="6">
         <v>50</v>
@@ -5407,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="8"/>
+        <f>D87+E87+F87+G87</f>
         <v>85</v>
       </c>
     </row>
@@ -5422,15 +5163,14 @@
         <v>179</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="6"/>
+        <f>H88+I88+J88+K88+L88</f>
         <v>10</v>
       </c>
       <c r="E88" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F88" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="6">
         <v>50</v>
@@ -5457,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="8"/>
+        <f>D88+E88+F88+G88</f>
         <v>80</v>
       </c>
     </row>
@@ -5472,17 +5212,18 @@
         <v>181</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="6"/>
+        <f>H89+I89+J89+K89+L89</f>
         <v>8</v>
       </c>
       <c r="E89" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F89" s="6">
-        <v>12</v>
-      </c>
-      <c r="G89" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G89" s="6">
+        <v>42</v>
+      </c>
       <c r="H89" s="7">
         <v>2</v>
       </c>
@@ -5503,8 +5244,8 @@
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <f>D89+E89+F89+G89</f>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5518,15 +5259,14 @@
         <v>183</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="6"/>
+        <f>H90+I90+J90+K90+L90</f>
         <v>10</v>
       </c>
       <c r="E90" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F90" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G90" s="6">
         <v>50</v>
@@ -5555,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="8"/>
+        <f>D90+E90+F90+G90</f>
         <v>80</v>
       </c>
     </row>
@@ -5570,17 +5310,18 @@
         <v>185</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="6"/>
+        <f>H91+I91+J91+K91+L91</f>
         <v>8</v>
       </c>
       <c r="E91" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F91" s="6">
         <v>12</v>
       </c>
-      <c r="G91" s="6"/>
+      <c r="G91" s="6">
+        <v>40</v>
+      </c>
       <c r="H91" s="7">
         <v>2</v>
       </c>
@@ -5599,8 +5340,8 @@
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
       <c r="Q91">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f>D91+E91+F91+G91</f>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5614,15 +5355,14 @@
         <v>187</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="6"/>
+        <f>H92+I92+J92+K92+L92</f>
         <v>10</v>
       </c>
       <c r="E92" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F92" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G92" s="6">
         <v>45</v>
@@ -5651,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="8"/>
+        <f>D92+E92+F92+G92</f>
         <v>75</v>
       </c>
     </row>
@@ -5665,17 +5405,9 @@
       <c r="C93" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E93" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="F93" s="6">
-        <v>16</v>
-      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="7">
         <v>2</v>
@@ -5697,8 +5429,8 @@
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f>D93+E93+F93+G93</f>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5712,15 +5444,18 @@
         <v>191</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="6"/>
+        <f>H94+I94+J94+K94+L94</f>
         <v>10</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F94" s="6">
+        <v>10</v>
+      </c>
+      <c r="G94" s="6">
+        <v>40</v>
+      </c>
       <c r="H94" s="7">
         <v>2</v>
       </c>
@@ -5743,8 +5478,8 @@
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
       <c r="Q94">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f>D94+E94+F94+G94</f>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5758,11 +5493,11 @@
         <v>193</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="6"/>
+        <f>H95+I95+J95+K95+L95</f>
         <v>10</v>
       </c>
       <c r="E95" s="6">
-        <f t="shared" si="7"/>
+        <f>M95+N95+O95+P95</f>
         <v>14</v>
       </c>
       <c r="F95" s="6">
@@ -5795,7 +5530,7 @@
         <v>9</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="8"/>
+        <f>D95+E95+F95+G95</f>
         <v>90</v>
       </c>
     </row>
@@ -5810,11 +5545,11 @@
         <v>195</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="6"/>
+        <f>H96+I96+J96+K96+L96</f>
         <v>10</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="7"/>
+        <f>M96+N96+O96+P96</f>
         <v>10</v>
       </c>
       <c r="F96" s="6">
@@ -5849,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="8"/>
+        <f>D96+E96+F96+G96</f>
         <v>75</v>
       </c>
     </row>
@@ -5864,16 +5599,18 @@
         <v>197</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="6"/>
+        <f>H97+I97+J97+K97+L97</f>
         <v>10</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="F97" s="6"/>
+        <f>M97+N97+O97+P97</f>
+        <v>10</v>
+      </c>
+      <c r="F97" s="6">
+        <v>10</v>
+      </c>
       <c r="G97" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H97" s="7">
         <v>2</v>
@@ -5899,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="8"/>
+        <f>D97+E97+F97+G97</f>
         <v>70</v>
       </c>
     </row>
@@ -5914,11 +5651,11 @@
         <v>199</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" ref="D98:D105" si="9">H98+I98+J98+K98+L98</f>
+        <f>H98+I98+J98+K98+L98</f>
         <v>8</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" ref="E98:E105" si="10">M98+N98+O98+P98</f>
+        <f>M98+N98+O98+P98</f>
         <v>14</v>
       </c>
       <c r="F98" s="6">
@@ -5949,7 +5686,7 @@
         <v>9</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q105" si="11">D98+E98+F98+G98</f>
+        <f>D98+E98+F98+G98</f>
         <v>90</v>
       </c>
     </row>
@@ -5964,15 +5701,14 @@
         <v>201</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="9"/>
+        <f>H99+I99+J99+K99+L99</f>
         <v>10</v>
       </c>
       <c r="E99" s="6">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G99" s="6">
         <v>40</v>
@@ -6003,7 +5739,7 @@
         <v>3</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="11"/>
+        <f>D99+E99+F99+G99</f>
         <v>75</v>
       </c>
     </row>
@@ -6017,17 +5753,9 @@
       <c r="C100" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="6">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="E100" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="6">
-        <v>18</v>
-      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="7">
         <v>2</v>
@@ -6047,8 +5775,8 @@
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
       <c r="Q100">
-        <f t="shared" si="11"/>
-        <v>26</v>
+        <f>D100+E100+F100+G100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,18 +5790,17 @@
         <v>205</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="9"/>
+        <f>H101+I101+J101+K101+L101</f>
         <v>10</v>
       </c>
       <c r="E101" s="6">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F101" s="6">
         <v>10</v>
       </c>
       <c r="G101" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H101" s="7">
         <v>2</v>
@@ -6097,7 +5824,7 @@
         <v>5</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="11"/>
+        <f>D101+E101+F101+G101</f>
         <v>70</v>
       </c>
     </row>
@@ -6111,14 +5838,8 @@
       <c r="C102" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D102" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="E102" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="7">
@@ -6137,8 +5858,8 @@
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
       <c r="Q102">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f>D102+E102+F102+G102</f>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6152,15 +5873,13 @@
         <v>209</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F103" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="6">
         <v>45</v>
@@ -6183,7 +5902,7 @@
         <v>6</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="11"/>
+        <f>D103+E103+F103+G103</f>
         <v>75</v>
       </c>
     </row>
@@ -6198,18 +5917,17 @@
         <v>211</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="9"/>
+        <f>H104+I104+J104+K104+L104</f>
         <v>10</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F104" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H104" s="7">
         <v>2</v>
@@ -6235,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="11"/>
+        <f>D104+E104+F104+G104</f>
         <v>75</v>
       </c>
     </row>
@@ -6250,15 +5968,14 @@
         <v>213</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="9"/>
+        <f>H105+I105+J105+K105+L105</f>
         <v>10</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F105" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="6">
         <v>40</v>
@@ -6285,12 +6002,12 @@
         <v>4</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="11"/>
+        <f>D105+E105+F105+G105</f>
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:Q105">
       <sortCondition ref="A1"/>
     </sortState>
